--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_2_35.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_2_35.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2364757.642097476</v>
+        <v>2485173.859058476</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13234149.48931499</v>
+        <v>11843801.51954496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1952556.475735384</v>
+        <v>612367.9462114758</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5671678.609869165</v>
+        <v>6034749.336268168</v>
       </c>
     </row>
     <row r="11">
@@ -662,22 +664,22 @@
         <v>22.63172268683286</v>
       </c>
       <c r="D2" t="n">
-        <v>362.6751487885534</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>132.8058352098929</v>
       </c>
       <c r="F2" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -716,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -820,10 +822,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>170.1431564831852</v>
@@ -832,7 +834,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>98.77088257712678</v>
@@ -868,22 +870,22 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>79.276583164811</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>74.07925546865171</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +898,25 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>72.12684346238393</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>14.94721823158723</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -959,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="6">
@@ -1060,16 +1062,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>161.014781253608</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>98.77088257712678</v>
@@ -1108,16 +1110,16 @@
         <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>12.71862614356119</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
         <v>224.0793406271554</v>
@@ -1133,25 +1135,25 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>37.57894091842063</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D8" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>78.78485502651539</v>
       </c>
       <c r="F8" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1193,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
         <v>1.283897344658556</v>
@@ -1288,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1306,7 +1308,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>84.15190085062704</v>
       </c>
       <c r="I10" t="n">
         <v>98.77088257712678</v>
@@ -1336,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>39.18432701099575</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
         <v>277.3826040146988</v>
@@ -1367,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486148</v>
       </c>
       <c r="C11" t="n">
-        <v>63.13104479275841</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>421.7171704536211</v>
       </c>
       <c r="F11" t="n">
         <v>420.8729399924938</v>
@@ -1385,10 +1387,10 @@
         <v>400.2956717864459</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407056</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396359</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.3236211855911</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.7163152458133</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.7713603095519</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.9145207250131</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439312</v>
+        <v>407.6027988439303</v>
       </c>
       <c r="Y11" t="n">
         <v>401.2838973446586</v>
@@ -1531,13 +1533,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>43.9795392199976</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>67.11450753650865</v>
       </c>
       <c r="G13" t="n">
         <v>164.5944000087102</v>
@@ -1546,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
         <v>168.4336970060565</v>
@@ -1585,10 +1587,10 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
         <v>240.1382575886529</v>
@@ -1622,10 +1624,10 @@
         <v>400.2956717864459</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407056</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.54790254396359</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458133</v>
       </c>
       <c r="U14" t="n">
-        <v>152.5045014894403</v>
+        <v>255.7713603095519</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.9145207250131</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
         <v>407.6027988439303</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1768,13 +1770,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1783,7 +1785,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>124.2290557831222</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>269.0219254928281</v>
       </c>
       <c r="X16" t="n">
         <v>240.1382575886529</v>
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486148</v>
       </c>
       <c r="C17" t="n">
         <v>422.6317226868329</v>
@@ -1850,19 +1852,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>421.7171704536211</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924938</v>
       </c>
       <c r="G17" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407056</v>
       </c>
       <c r="I17" t="n">
-        <v>34.54790254396433</v>
+        <v>34.54790254396359</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855911</v>
       </c>
       <c r="T17" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458144</v>
       </c>
       <c r="U17" t="n">
-        <v>255.7713603095518</v>
+        <v>255.7713603095519</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250131</v>
       </c>
       <c r="W17" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439303</v>
       </c>
       <c r="Y17" t="n">
         <v>401.2838973446586</v>
@@ -2005,13 +2007,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831889</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
         <v>164.5944000087102</v>
@@ -2053,13 +2055,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>232.2889762329893</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>125.4203831793905</v>
       </c>
       <c r="W19" t="n">
         <v>272.1038797892121</v>
@@ -2068,7 +2070,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486148</v>
       </c>
       <c r="C20" t="n">
         <v>422.6317226868329</v>
@@ -2087,19 +2089,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>421.7171704536211</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924938</v>
       </c>
       <c r="G20" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864459</v>
       </c>
       <c r="H20" t="n">
-        <v>294.8896947407063</v>
+        <v>294.8896947407056</v>
       </c>
       <c r="I20" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396242</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855911</v>
       </c>
       <c r="T20" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U20" t="n">
-        <v>255.7713603095518</v>
+        <v>255.7713603095519</v>
       </c>
       <c r="V20" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250149</v>
       </c>
       <c r="W20" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439303</v>
       </c>
       <c r="Y20" t="n">
         <v>401.2838973446586</v>
@@ -2239,13 +2241,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>18.30077526641196</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
@@ -2254,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>96.44420510686429</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
@@ -2305,7 +2307,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2485,16 +2487,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
         <v>98.15366458399268</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2716,16 +2718,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2761,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>123.9086344760398</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
@@ -2962,13 +2964,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>11.12043047005107</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>65.41309383316636</v>
       </c>
       <c r="V31" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3187,7 +3189,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3199,7 +3201,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>98.26334559068066</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3235,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
@@ -3427,22 +3429,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>121.2482518332239</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
         <v>277.3826040146988</v>
@@ -3487,7 +3489,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>86.66428804999391</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
         <v>224.0793406271554</v>
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486152</v>
       </c>
       <c r="C38" t="n">
         <v>422.6317226868329</v>
@@ -3521,7 +3523,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I38" t="n">
-        <v>34.54790254396345</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3661,13 +3663,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>3.380036230935347</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
@@ -3679,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>96.44420510686429</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>240.905954296359</v>
@@ -3743,13 +3745,13 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
         <v>400.2956717864458</v>
@@ -3758,7 +3760,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.54790254396463</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
         <v>353.914520725013</v>
@@ -3806,7 +3808,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>169.9217996662212</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -3904,10 +3906,10 @@
         <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
         <v>164.5944000087102</v>
@@ -3916,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,13 +3951,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>35.87620097637587</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>115.3288057180334</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
@@ -4028,22 +4030,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439313</v>
       </c>
       <c r="Y44" t="n">
-        <v>90.29103679937155</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>168.9733955350583</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>152.9880240248538</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
@@ -4201,7 +4203,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1716.447907866797</v>
+        <v>640.3848264867772</v>
       </c>
       <c r="C2" t="n">
-        <v>1693.587581920501</v>
+        <v>617.5245005404814</v>
       </c>
       <c r="D2" t="n">
-        <v>1327.249047790649</v>
+        <v>598.2722837658857</v>
       </c>
       <c r="E2" t="n">
-        <v>901.2721079385067</v>
+        <v>464.1249754730646</v>
       </c>
       <c r="F2" t="n">
-        <v>476.1479261279069</v>
+        <v>39.00079366246482</v>
       </c>
       <c r="G2" t="n">
-        <v>71.80886371735554</v>
+        <v>38.70213529231751</v>
       </c>
       <c r="H2" t="n">
-        <v>71.80886371735554</v>
+        <v>38.70213529231751</v>
       </c>
       <c r="I2" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231751</v>
       </c>
       <c r="J2" t="n">
-        <v>36.91199246082674</v>
+        <v>401.305594109213</v>
       </c>
       <c r="K2" t="n">
-        <v>36.91199246082674</v>
+        <v>880.2445183516422</v>
       </c>
       <c r="L2" t="n">
-        <v>36.91199246082674</v>
+        <v>880.2445183516422</v>
       </c>
       <c r="M2" t="n">
-        <v>475.2419029331441</v>
+        <v>1359.183442594071</v>
       </c>
       <c r="N2" t="n">
-        <v>932.027809635875</v>
+        <v>1359.183442594071</v>
       </c>
       <c r="O2" t="n">
-        <v>1388.813716338606</v>
+        <v>1359.183442594071</v>
       </c>
       <c r="P2" t="n">
-        <v>1845.599623041337</v>
+        <v>1361.46495022979</v>
       </c>
       <c r="Q2" t="n">
-        <v>1845.599623041337</v>
+        <v>1817.550429733973</v>
       </c>
       <c r="R2" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615876</v>
       </c>
       <c r="S2" t="n">
-        <v>1741.232328914477</v>
+        <v>1830.739470489016</v>
       </c>
       <c r="T2" t="n">
-        <v>1741.232328914477</v>
+        <v>1830.739470489016</v>
       </c>
       <c r="U2" t="n">
-        <v>1741.232328914477</v>
+        <v>1830.739470489016</v>
       </c>
       <c r="V2" t="n">
-        <v>1741.232328914477</v>
+        <v>1473.250055615266</v>
       </c>
       <c r="W2" t="n">
-        <v>1741.232328914477</v>
+        <v>1473.250055615266</v>
       </c>
       <c r="X2" t="n">
-        <v>1733.552734122628</v>
+        <v>1061.530056783013</v>
       </c>
       <c r="Y2" t="n">
-        <v>1732.255868117923</v>
+        <v>656.1927867379032</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>604.0354834922822</v>
+        <v>605.8256263237728</v>
       </c>
       <c r="C3" t="n">
-        <v>486.529580009787</v>
+        <v>488.3197228412776</v>
       </c>
       <c r="D3" t="n">
-        <v>382.6896215250719</v>
+        <v>384.4797643565626</v>
       </c>
       <c r="E3" t="n">
-        <v>277.9876877980091</v>
+        <v>279.7778306294998</v>
       </c>
       <c r="F3" t="n">
-        <v>184.3418574809132</v>
+        <v>186.1320003124039</v>
       </c>
       <c r="G3" t="n">
-        <v>90.28808569851708</v>
+        <v>92.07822853000792</v>
       </c>
       <c r="H3" t="n">
-        <v>36.9119924608267</v>
+        <v>38.70213529231751</v>
       </c>
       <c r="I3" t="n">
-        <v>44.35863542273854</v>
+        <v>38.70213529231751</v>
       </c>
       <c r="J3" t="n">
-        <v>316.0561247023296</v>
+        <v>38.70213529231751</v>
       </c>
       <c r="K3" t="n">
-        <v>772.8420314050604</v>
+        <v>38.70213529231751</v>
       </c>
       <c r="L3" t="n">
-        <v>772.8420314050604</v>
+        <v>38.70213529231751</v>
       </c>
       <c r="M3" t="n">
-        <v>850.0084995511718</v>
+        <v>517.6410595347468</v>
       </c>
       <c r="N3" t="n">
-        <v>1306.794406253903</v>
+        <v>996.579983777176</v>
       </c>
       <c r="O3" t="n">
-        <v>1763.580312956634</v>
+        <v>1475.518908019605</v>
       </c>
       <c r="P3" t="n">
-        <v>1763.580312956634</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="Q3" t="n">
-        <v>1763.580312956634</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="R3" t="n">
-        <v>1845.599623041337</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="S3" t="n">
-        <v>1764.275375602591</v>
+        <v>1766.065518434082</v>
       </c>
       <c r="T3" t="n">
-        <v>1622.39543990027</v>
+        <v>1624.18558273176</v>
       </c>
       <c r="U3" t="n">
-        <v>1437.627243819906</v>
+        <v>1439.417386651397</v>
       </c>
       <c r="V3" t="n">
-        <v>1232.654104959172</v>
+        <v>1234.444247790663</v>
       </c>
       <c r="W3" t="n">
-        <v>1036.13272779239</v>
+        <v>1037.92287062388</v>
       </c>
       <c r="X3" t="n">
-        <v>872.6553815590526</v>
+        <v>874.4455243905431</v>
       </c>
       <c r="Y3" t="n">
-        <v>732.9624929123449</v>
+        <v>734.7526357438355</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1120.093114985063</v>
+        <v>648.5620106043331</v>
       </c>
       <c r="C4" t="n">
-        <v>948.1205518639796</v>
+        <v>476.589447483249</v>
       </c>
       <c r="D4" t="n">
-        <v>784.8037789907503</v>
+        <v>476.589447483249</v>
       </c>
       <c r="E4" t="n">
-        <v>618.5955731436038</v>
+        <v>476.589447483249</v>
       </c>
       <c r="F4" t="n">
-        <v>446.7337989181643</v>
+        <v>304.7276732578094</v>
       </c>
       <c r="G4" t="n">
-        <v>280.4768292123964</v>
+        <v>138.4707035520416</v>
       </c>
       <c r="H4" t="n">
-        <v>136.6805607205508</v>
+        <v>138.4707035520416</v>
       </c>
       <c r="I4" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231751</v>
       </c>
       <c r="J4" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231751</v>
       </c>
       <c r="K4" t="n">
-        <v>76.20565529896515</v>
+        <v>265.2297364981547</v>
       </c>
       <c r="L4" t="n">
-        <v>430.8949765933859</v>
+        <v>619.9190577925755</v>
       </c>
       <c r="M4" t="n">
-        <v>822.0807715636367</v>
+        <v>1011.104852762826</v>
       </c>
       <c r="N4" t="n">
-        <v>1199.572282439673</v>
+        <v>1388.596363638862</v>
       </c>
       <c r="O4" t="n">
-        <v>1555.000411119436</v>
+        <v>1644.507552693975</v>
       </c>
       <c r="P4" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615876</v>
       </c>
       <c r="Q4" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615876</v>
       </c>
       <c r="R4" t="n">
-        <v>1798.56100972851</v>
+        <v>1888.068151303049</v>
       </c>
       <c r="S4" t="n">
-        <v>1628.425962247645</v>
+        <v>1717.933103822184</v>
       </c>
       <c r="T4" t="n">
-        <v>1385.086614473545</v>
+        <v>1717.933103822184</v>
       </c>
       <c r="U4" t="n">
-        <v>1385.086614473545</v>
+        <v>1637.855747090052</v>
       </c>
       <c r="V4" t="n">
-        <v>1385.086614473545</v>
+        <v>1356.14427969808</v>
       </c>
       <c r="W4" t="n">
-        <v>1385.086614473545</v>
+        <v>1081.291875870593</v>
       </c>
       <c r="X4" t="n">
-        <v>1385.086614473545</v>
+        <v>838.7279793163987</v>
       </c>
       <c r="Y4" t="n">
-        <v>1310.259083697129</v>
+        <v>838.7279793163987</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1392.046023333888</v>
+        <v>1376.947823099961</v>
       </c>
       <c r="C5" t="n">
-        <v>1319.190625897137</v>
+        <v>950.0470931132616</v>
       </c>
       <c r="D5" t="n">
-        <v>895.8980050821372</v>
+        <v>526.7544722982618</v>
       </c>
       <c r="E5" t="n">
-        <v>873.9614692703988</v>
+        <v>100.7775324461193</v>
       </c>
       <c r="F5" t="n">
-        <v>448.8372874597989</v>
+        <v>79.69375467592363</v>
       </c>
       <c r="G5" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H5" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I5" t="n">
         <v>44.49822504924753</v>
@@ -4568,13 +4570,13 @@
         <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>407.101683866143</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L5" t="n">
-        <v>407.101683866143</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M5" t="n">
-        <v>549.9383681074144</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N5" t="n">
         <v>1100.603903091853</v>
@@ -4595,22 +4597,22 @@
         <v>2224.911252462377</v>
       </c>
       <c r="T5" t="n">
-        <v>2224.911252462377</v>
+        <v>2209.81305222845</v>
       </c>
       <c r="U5" t="n">
-        <v>2224.911252462377</v>
+        <v>2209.81305222845</v>
       </c>
       <c r="V5" t="n">
-        <v>2224.911252462377</v>
+        <v>2209.81305222845</v>
       </c>
       <c r="W5" t="n">
-        <v>2224.911252462377</v>
+        <v>2209.81305222845</v>
       </c>
       <c r="X5" t="n">
-        <v>2217.231657670528</v>
+        <v>1798.093053396197</v>
       </c>
       <c r="Y5" t="n">
-        <v>1811.894387625418</v>
+        <v>1796.796187391491</v>
       </c>
     </row>
     <row r="6">
@@ -4641,28 +4643,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J6" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K6" t="n">
-        <v>51.94486801115937</v>
+        <v>119.1699405917395</v>
       </c>
       <c r="L6" t="n">
-        <v>205.6899987133984</v>
+        <v>669.8354755761777</v>
       </c>
       <c r="M6" t="n">
-        <v>756.3555336978366</v>
+        <v>669.8354755761777</v>
       </c>
       <c r="N6" t="n">
-        <v>756.3555336978366</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="O6" t="n">
-        <v>1307.021068682275</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="P6" t="n">
-        <v>1307.021068682275</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="Q6" t="n">
         <v>1771.166545545054</v>
@@ -4699,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>785.9935909805931</v>
+        <v>817.6261093758709</v>
       </c>
       <c r="C7" t="n">
-        <v>614.0210278595091</v>
+        <v>645.6535462547869</v>
       </c>
       <c r="D7" t="n">
-        <v>450.7042549862798</v>
+        <v>482.3367733815576</v>
       </c>
       <c r="E7" t="n">
-        <v>288.0630618008172</v>
+        <v>316.1285675344111</v>
       </c>
       <c r="F7" t="n">
-        <v>288.0630618008172</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="G7" t="n">
-        <v>288.0630618008172</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="H7" t="n">
         <v>144.2667933089716</v>
@@ -4729,46 +4731,46 @@
         <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
-        <v>683.2064757736634</v>
+        <v>683.2064757736641</v>
       </c>
       <c r="M7" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N7" t="n">
-        <v>1451.88378161995</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O7" t="n">
-        <v>1807.311910299713</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P7" t="n">
-        <v>2097.911122221614</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q7" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R7" t="n">
-        <v>2177.872639149549</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S7" t="n">
-        <v>2007.737591668684</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="T7" t="n">
-        <v>1764.398243894584</v>
+        <v>1764.398243894585</v>
       </c>
       <c r="U7" t="n">
-        <v>1484.213795394888</v>
+        <v>1751.551146779876</v>
       </c>
       <c r="V7" t="n">
-        <v>1202.502328002917</v>
+        <v>1751.551146779876</v>
       </c>
       <c r="W7" t="n">
-        <v>1202.502328002917</v>
+        <v>1476.698742952389</v>
       </c>
       <c r="X7" t="n">
-        <v>1202.502328002917</v>
+        <v>1234.134846398194</v>
       </c>
       <c r="Y7" t="n">
-        <v>976.1595596926588</v>
+        <v>1007.792078087936</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1796.086427374292</v>
+        <v>995.654673634235</v>
       </c>
       <c r="C8" t="n">
-        <v>1758.12790119407</v>
+        <v>972.7943476879392</v>
       </c>
       <c r="D8" t="n">
-        <v>1334.83528037907</v>
+        <v>549.5017268729395</v>
       </c>
       <c r="E8" t="n">
-        <v>908.8583405269275</v>
+        <v>469.9210652299946</v>
       </c>
       <c r="F8" t="n">
-        <v>483.7341587163277</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G8" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H8" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I8" t="n">
         <v>44.49822504924753</v>
@@ -4805,25 +4807,25 @@
         <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>572.914647509062</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L8" t="n">
-        <v>572.914647509062</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M8" t="n">
-        <v>572.914647509062</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="N8" t="n">
-        <v>1123.5801824935</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="O8" t="n">
-        <v>1674.245717477938</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="P8" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="Q8" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R8" t="n">
         <v>2224.911252462377</v>
@@ -4841,13 +4843,13 @@
         <v>2224.911252462377</v>
       </c>
       <c r="W8" t="n">
-        <v>2224.911252462377</v>
+        <v>1828.519902762723</v>
       </c>
       <c r="X8" t="n">
-        <v>2217.231657670528</v>
+        <v>1416.799903930471</v>
       </c>
       <c r="Y8" t="n">
-        <v>2215.934791665823</v>
+        <v>1415.503037925765</v>
       </c>
     </row>
     <row r="9">
@@ -4878,31 +4880,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J9" t="n">
-        <v>51.94486801115937</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K9" t="n">
-        <v>51.94486801115937</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="L9" t="n">
-        <v>602.6104029955975</v>
+        <v>669.8354755761777</v>
       </c>
       <c r="M9" t="n">
-        <v>602.6104029955975</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="N9" t="n">
-        <v>602.6104029955975</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="O9" t="n">
-        <v>838.3748437825398</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="P9" t="n">
-        <v>1389.040378766978</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="Q9" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R9" t="n">
         <v>1853.185855629757</v>
@@ -4936,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>964.3625747002551</v>
+        <v>733.5956631384639</v>
       </c>
       <c r="C10" t="n">
-        <v>792.3900115791711</v>
+        <v>733.5956631384639</v>
       </c>
       <c r="D10" t="n">
-        <v>792.3900115791711</v>
+        <v>733.5956631384639</v>
       </c>
       <c r="E10" t="n">
-        <v>626.1818057320246</v>
+        <v>567.3874572913174</v>
       </c>
       <c r="F10" t="n">
-        <v>454.3200315065851</v>
+        <v>395.5256830658778</v>
       </c>
       <c r="G10" t="n">
-        <v>288.0630618008172</v>
+        <v>229.26871336011</v>
       </c>
       <c r="H10" t="n">
         <v>144.2667933089716</v>
@@ -4984,28 +4986,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>2185.331124168441</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T10" t="n">
-        <v>2185.331124168441</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U10" t="n">
-        <v>1905.146675668745</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V10" t="n">
-        <v>1623.435208276773</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W10" t="n">
-        <v>1623.435208276773</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="X10" t="n">
-        <v>1380.871311722579</v>
+        <v>959.9384314487219</v>
       </c>
       <c r="Y10" t="n">
-        <v>1154.528543412321</v>
+        <v>733.5956631384639</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2142.862142293941</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C11" t="n">
-        <v>2079.093410180044</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D11" t="n">
-        <v>1655.800789365044</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E11" t="n">
-        <v>1229.823849512902</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F11" t="n">
-        <v>804.6996677023021</v>
+        <v>839.407025598874</v>
       </c>
       <c r="G11" t="n">
-        <v>400.3606052917506</v>
+        <v>435.0679631883227</v>
       </c>
       <c r="H11" t="n">
-        <v>102.4922267657855</v>
+        <v>137.1995846623574</v>
       </c>
       <c r="I11" t="n">
-        <v>67.59535550925669</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>430.1988143261522</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K11" t="n">
-        <v>430.1988143261522</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L11" t="n">
-        <v>1266.691338753204</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M11" t="n">
-        <v>2103.183863180255</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N11" t="n">
-        <v>2215.403016800723</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O11" t="n">
-        <v>2215.403016800723</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P11" t="n">
-        <v>2923.682295958651</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q11" t="n">
-        <v>3379.767775462834</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R11" t="n">
-        <v>3379.767775462834</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S11" t="n">
-        <v>3379.767775462834</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T11" t="n">
-        <v>3379.767775462834</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U11" t="n">
-        <v>3379.767775462834</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V11" t="n">
-        <v>3379.767775462834</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W11" t="n">
-        <v>3379.767775462834</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X11" t="n">
-        <v>2968.047776630581</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y11" t="n">
-        <v>2562.710506585471</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>634.718846540712</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C12" t="n">
-        <v>517.2129430582168</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D12" t="n">
-        <v>413.3729845735018</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E12" t="n">
-        <v>308.671050846439</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F12" t="n">
-        <v>215.0252205293431</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G12" t="n">
-        <v>120.9714487469471</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H12" t="n">
-        <v>67.59535550925669</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>67.59535550925669</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J12" t="n">
-        <v>67.59535550925669</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K12" t="n">
-        <v>67.59535550925669</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L12" t="n">
-        <v>323.5927446242171</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M12" t="n">
-        <v>323.5927446242171</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N12" t="n">
-        <v>323.5927446242171</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O12" t="n">
-        <v>1160.085269051269</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P12" t="n">
-        <v>1876.282986089767</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q12" t="n">
-        <v>1876.282986089767</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R12" t="n">
-        <v>1876.282986089767</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S12" t="n">
-        <v>1794.958738651021</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T12" t="n">
-        <v>1653.078802948699</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U12" t="n">
-        <v>1468.310606868336</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V12" t="n">
-        <v>1263.337468007602</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W12" t="n">
-        <v>1066.816090840819</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X12" t="n">
-        <v>903.3387446074823</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y12" t="n">
-        <v>763.6458559607747</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>613.5654381992344</v>
+        <v>608.0932463474637</v>
       </c>
       <c r="C13" t="n">
-        <v>441.5928750781504</v>
+        <v>436.1206832263797</v>
       </c>
       <c r="D13" t="n">
-        <v>278.2761022049211</v>
+        <v>436.1206832263797</v>
       </c>
       <c r="E13" t="n">
-        <v>233.8523252150246</v>
+        <v>436.1206832263797</v>
       </c>
       <c r="F13" t="n">
-        <v>233.8523252150246</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="G13" t="n">
-        <v>67.59535550925669</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H13" t="n">
-        <v>67.59535550925669</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I13" t="n">
-        <v>67.59535550925669</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J13" t="n">
-        <v>125.0866837334147</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K13" t="n">
-        <v>351.6142849392519</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L13" t="n">
-        <v>706.3036062336727</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M13" t="n">
-        <v>1097.489401203924</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N13" t="n">
-        <v>1474.980912079959</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O13" t="n">
-        <v>1830.409040759722</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P13" t="n">
-        <v>2121.008252681623</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q13" t="n">
-        <v>2248.008382922385</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R13" t="n">
-        <v>2248.008382922385</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S13" t="n">
-        <v>2077.87333544152</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T13" t="n">
-        <v>1834.53398766742</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U13" t="n">
-        <v>1554.349539167724</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V13" t="n">
-        <v>1272.638071775753</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="W13" t="n">
-        <v>1272.638071775753</v>
+        <v>1267.165879923982</v>
       </c>
       <c r="X13" t="n">
-        <v>1030.074175221558</v>
+        <v>1024.601983369787</v>
       </c>
       <c r="Y13" t="n">
-        <v>803.7314069113002</v>
+        <v>798.2592150595294</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2173.22889038425</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C14" t="n">
-        <v>1746.32816039755</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D14" t="n">
-        <v>1323.03553958255</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E14" t="n">
-        <v>897.058599730408</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F14" t="n">
-        <v>471.9344179198081</v>
+        <v>839.407025598874</v>
       </c>
       <c r="G14" t="n">
-        <v>67.59535550925669</v>
+        <v>435.0679631883227</v>
       </c>
       <c r="H14" t="n">
-        <v>67.59535550925669</v>
+        <v>137.1995846623574</v>
       </c>
       <c r="I14" t="n">
-        <v>67.59535550925669</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>430.1988143261522</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K14" t="n">
-        <v>430.1988143261522</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L14" t="n">
-        <v>1266.691338753204</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M14" t="n">
-        <v>2103.183863180255</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N14" t="n">
-        <v>2939.676387607307</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O14" t="n">
-        <v>3262.211440580932</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P14" t="n">
-        <v>3262.211440580932</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q14" t="n">
-        <v>3262.211440580932</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R14" t="n">
-        <v>3379.767775462834</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S14" t="n">
-        <v>3379.767775462834</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T14" t="n">
-        <v>3158.842204507468</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U14" t="n">
-        <v>3004.797253508033</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>3004.797253508033</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W14" t="n">
-        <v>3004.797253508033</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X14" t="n">
-        <v>2593.07725467578</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y14" t="n">
-        <v>2593.07725467578</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>634.718846540712</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C15" t="n">
-        <v>517.2129430582168</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D15" t="n">
-        <v>413.3729845735018</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E15" t="n">
-        <v>308.671050846439</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F15" t="n">
-        <v>215.0252205293431</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G15" t="n">
-        <v>120.9714487469471</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H15" t="n">
-        <v>67.59535550925669</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>67.59535550925669</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J15" t="n">
-        <v>339.2928447888478</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K15" t="n">
-        <v>695.9397921884893</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L15" t="n">
-        <v>695.9397921884893</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="M15" t="n">
-        <v>695.9397921884893</v>
+        <v>1429.986740661465</v>
       </c>
       <c r="N15" t="n">
-        <v>695.9397921884893</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O15" t="n">
-        <v>695.9397921884893</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P15" t="n">
-        <v>1412.137509226987</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q15" t="n">
-        <v>1876.282986089767</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R15" t="n">
-        <v>1876.282986089767</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S15" t="n">
-        <v>1794.958738651021</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T15" t="n">
-        <v>1653.078802948699</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U15" t="n">
-        <v>1468.310606868336</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V15" t="n">
-        <v>1263.337468007602</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W15" t="n">
-        <v>1066.816090840819</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X15" t="n">
-        <v>903.3387446074823</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y15" t="n">
-        <v>763.6458559607747</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>383.3641871221863</v>
+        <v>853.0186603771511</v>
       </c>
       <c r="C16" t="n">
-        <v>211.3916240011023</v>
+        <v>681.0460972560671</v>
       </c>
       <c r="D16" t="n">
-        <v>211.3916240011023</v>
+        <v>517.7293243828378</v>
       </c>
       <c r="E16" t="n">
-        <v>211.3916240011023</v>
+        <v>517.7293243828378</v>
       </c>
       <c r="F16" t="n">
-        <v>211.3916240011023</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="G16" t="n">
-        <v>211.3916240011023</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H16" t="n">
-        <v>67.59535550925669</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I16" t="n">
-        <v>67.59535550925669</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>125.0866837334147</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K16" t="n">
-        <v>351.6142849392519</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L16" t="n">
-        <v>706.3036062336727</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M16" t="n">
-        <v>1097.489401203924</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N16" t="n">
-        <v>1474.980912079959</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O16" t="n">
-        <v>1830.409040759722</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P16" t="n">
-        <v>2121.008252681623</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q16" t="n">
-        <v>2248.008382922385</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R16" t="n">
-        <v>2248.008382922385</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S16" t="n">
-        <v>2122.524488191958</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T16" t="n">
-        <v>1879.185140417859</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="U16" t="n">
-        <v>1599.000691918163</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="V16" t="n">
-        <v>1317.289224526192</v>
+        <v>1783.830612633294</v>
       </c>
       <c r="W16" t="n">
-        <v>1042.436820698705</v>
+        <v>1512.091293953669</v>
       </c>
       <c r="X16" t="n">
-        <v>799.8729241445099</v>
+        <v>1269.527397399475</v>
       </c>
       <c r="Y16" t="n">
-        <v>573.5301558342519</v>
+        <v>1043.184629089217</v>
       </c>
     </row>
     <row r="17">
@@ -5489,52 +5491,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988747</v>
+        <v>839.407025598874</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883227</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623574</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K17" t="n">
-        <v>533.9931985757493</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L17" t="n">
-        <v>1463.618246195026</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M17" t="n">
-        <v>2467.904347614084</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N17" t="n">
-        <v>3444.155406100785</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O17" t="n">
-        <v>4289.300056251597</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P17" t="n">
-        <v>4997.579335409525</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="Q17" t="n">
-        <v>4997.579335409525</v>
+        <v>5029.203358561359</v>
       </c>
       <c r="R17" t="n">
         <v>5115.135670291427</v>
@@ -5543,22 +5545,22 @@
         <v>5010.768376164568</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U17" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
         <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="18">
@@ -5601,10 +5603,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M18" t="n">
-        <v>102.3027134058285</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N18" t="n">
-        <v>1191.617659878699</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O18" t="n">
         <v>1910.990343986338</v>
@@ -5647,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>778.6022263052703</v>
+        <v>941.9189991784958</v>
       </c>
       <c r="C19" t="n">
-        <v>606.6296631841863</v>
+        <v>769.9464360574118</v>
       </c>
       <c r="D19" t="n">
-        <v>606.6296631841863</v>
+        <v>606.6296631841825</v>
       </c>
       <c r="E19" t="n">
-        <v>440.4214573370398</v>
+        <v>440.421457337036</v>
       </c>
       <c r="F19" t="n">
         <v>268.5596831115964</v>
@@ -5689,34 +5691,34 @@
         <v>1865.116398656294</v>
       </c>
       <c r="P19" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578193</v>
       </c>
       <c r="Q19" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818955</v>
       </c>
       <c r="R19" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818955</v>
       </c>
       <c r="S19" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818955</v>
       </c>
       <c r="T19" t="n">
-        <v>2048.080411290685</v>
+        <v>2282.715740818955</v>
       </c>
       <c r="U19" t="n">
-        <v>1767.895962790989</v>
+        <v>2002.531292319259</v>
       </c>
       <c r="V19" t="n">
-        <v>1486.184495399018</v>
+        <v>1875.844036582501</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.332091571531</v>
+        <v>1600.991632755014</v>
       </c>
       <c r="X19" t="n">
-        <v>968.768195017336</v>
+        <v>1358.427736200819</v>
       </c>
       <c r="Y19" t="n">
-        <v>968.768195017336</v>
+        <v>1132.084967890562</v>
       </c>
     </row>
     <row r="20">
@@ -5726,52 +5728,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261615</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409473</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988746</v>
+        <v>839.4070255988729</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883215</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623562</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K20" t="n">
-        <v>1180.414480198223</v>
+        <v>651.5495334576516</v>
       </c>
       <c r="L20" t="n">
-        <v>2110.0395278175</v>
+        <v>1581.174581076928</v>
       </c>
       <c r="M20" t="n">
-        <v>3114.325629236558</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N20" t="n">
-        <v>4090.576687723259</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O20" t="n">
-        <v>4935.721337874071</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P20" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q20" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R20" t="n">
         <v>5115.135670291427</v>
@@ -5786,16 +5788,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.99848093186</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232207</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354845</v>
       </c>
     </row>
     <row r="21">
@@ -5832,19 +5834,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L21" t="n">
-        <v>102.3027134058285</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="M21" t="n">
-        <v>821.6753975134684</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="N21" t="n">
-        <v>1910.990343986338</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="O21" t="n">
-        <v>1910.990343986338</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="P21" t="n">
         <v>1910.990343986338</v>
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>446.1370507523521</v>
+        <v>599.7631605785773</v>
       </c>
       <c r="C22" t="n">
-        <v>274.1644876312681</v>
+        <v>599.7631605785773</v>
       </c>
       <c r="D22" t="n">
-        <v>274.1644876312681</v>
+        <v>436.446387705348</v>
       </c>
       <c r="E22" t="n">
-        <v>274.1644876312681</v>
+        <v>417.9607561231137</v>
       </c>
       <c r="F22" t="n">
-        <v>102.3027134058285</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="G22" t="n">
-        <v>102.3027134058285</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H22" t="n">
         <v>102.3027134058285</v>
@@ -5935,25 +5937,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2185.297351822124</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T22" t="n">
-        <v>1941.958004048024</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U22" t="n">
-        <v>1661.773555548329</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V22" t="n">
-        <v>1380.062088156358</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W22" t="n">
-        <v>1105.20968432887</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X22" t="n">
-        <v>862.6457877746757</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y22" t="n">
-        <v>636.3030194644177</v>
+        <v>789.9291292906429</v>
       </c>
     </row>
     <row r="23">
@@ -6072,10 +6074,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M24" t="n">
-        <v>821.6753975134684</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N24" t="n">
         <v>1910.990343986338</v>
@@ -6133,13 +6135,13 @@
         <v>201.4478291472353</v>
       </c>
       <c r="F25" t="n">
-        <v>102.3027134058285</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="G25" t="n">
-        <v>102.3027134058285</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="H25" t="n">
-        <v>102.3027134058285</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
@@ -6312,10 +6314,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M27" t="n">
-        <v>1021.509065974867</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N27" t="n">
-        <v>1021.509065974867</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O27" t="n">
         <v>1910.990343986338</v>
@@ -6358,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>941.9189991784958</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C28" t="n">
-        <v>769.9464360574118</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D28" t="n">
-        <v>606.6296631841825</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E28" t="n">
-        <v>440.421457337036</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F28" t="n">
-        <v>268.5596831115964</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
         <v>102.3027134058285</v>
@@ -6409,25 +6411,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2157.555503974472</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T28" t="n">
-        <v>2157.555503974472</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U28" t="n">
-        <v>2157.555503974472</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V28" t="n">
-        <v>1875.844036582501</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W28" t="n">
-        <v>1600.991632755014</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X28" t="n">
-        <v>1358.427736200819</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y28" t="n">
-        <v>1132.084967890562</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="29">
@@ -6461,25 +6463,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>817.8110213813276</v>
+        <v>1125.089101572745</v>
       </c>
       <c r="L29" t="n">
-        <v>1747.436069000604</v>
+        <v>1125.089101572745</v>
       </c>
       <c r="M29" t="n">
-        <v>2751.722170419663</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N29" t="n">
-        <v>3727.973228906364</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O29" t="n">
-        <v>4573.117879057176</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P29" t="n">
-        <v>5115.135670291427</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q29" t="n">
         <v>5115.135670291427</v>
@@ -6546,13 +6548,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>855.0038060102931</v>
       </c>
       <c r="M30" t="n">
-        <v>102.3027134058285</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N30" t="n">
-        <v>1191.617659878699</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O30" t="n">
         <v>1910.990343986338</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>786.8947875232845</v>
+        <v>1041.68756743822</v>
       </c>
       <c r="C31" t="n">
-        <v>614.9222244022005</v>
+        <v>869.7150043171358</v>
       </c>
       <c r="D31" t="n">
-        <v>451.6054515289712</v>
+        <v>706.3982314439065</v>
       </c>
       <c r="E31" t="n">
-        <v>285.3972456818248</v>
+        <v>540.1900255967601</v>
       </c>
       <c r="F31" t="n">
-        <v>113.5354714563852</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="G31" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H31" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
@@ -6643,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S31" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T31" t="n">
-        <v>2282.715740818957</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U31" t="n">
-        <v>2002.531292319261</v>
+        <v>1756.128900096451</v>
       </c>
       <c r="V31" t="n">
-        <v>1720.81982492729</v>
+        <v>1474.41743270448</v>
       </c>
       <c r="W31" t="n">
-        <v>1445.967421099803</v>
+        <v>1474.41743270448</v>
       </c>
       <c r="X31" t="n">
-        <v>1203.403524545608</v>
+        <v>1231.853536150285</v>
       </c>
       <c r="Y31" t="n">
-        <v>977.0607562353503</v>
+        <v>1231.853536150285</v>
       </c>
     </row>
     <row r="32">
@@ -6698,16 +6700,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K32" t="n">
-        <v>1180.414480198223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L32" t="n">
-        <v>2110.0395278175</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M32" t="n">
-        <v>2110.0395278175</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N32" t="n">
         <v>2988.069926596602</v>
@@ -6783,16 +6785,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L33" t="n">
-        <v>939.1015214887346</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M33" t="n">
-        <v>939.1015214887346</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N33" t="n">
-        <v>939.1015214887346</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O33" t="n">
-        <v>1194.79262694784</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P33" t="n">
         <v>1910.990343986338</v>
@@ -6832,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>373.4203922683193</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C34" t="n">
-        <v>373.4203922683193</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D34" t="n">
-        <v>373.4203922683193</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E34" t="n">
-        <v>373.4203922683193</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
-        <v>201.5586180428797</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
         <v>102.3027134058285</v>
@@ -6883,25 +6885,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2112.580693338092</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T34" t="n">
-        <v>1869.241345563992</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U34" t="n">
-        <v>1589.056897064296</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V34" t="n">
-        <v>1307.345429672325</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W34" t="n">
-        <v>1032.493025844838</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X34" t="n">
-        <v>789.9291292906429</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y34" t="n">
-        <v>563.5863609803849</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D35" t="n">
         <v>1690.508147261616</v>
@@ -6923,61 +6925,61 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>464.906172222724</v>
+        <v>195.4640539534684</v>
       </c>
       <c r="K35" t="n">
-        <v>1180.414480198223</v>
+        <v>195.4640539534684</v>
       </c>
       <c r="L35" t="n">
-        <v>2110.0395278175</v>
+        <v>1125.089101572745</v>
       </c>
       <c r="M35" t="n">
-        <v>3114.325629236558</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N35" t="n">
-        <v>4090.576687723259</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O35" t="n">
-        <v>4090.576687723259</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P35" t="n">
-        <v>4541.493855905341</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q35" t="n">
-        <v>4997.579335409524</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V35" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W35" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X35" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y35" t="n">
         <v>2960.549862354846</v>
@@ -7011,22 +7013,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J36" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K36" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L36" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M36" t="n">
-        <v>1165.735894343786</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N36" t="n">
-        <v>1910.990343986338</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O36" t="n">
         <v>1910.990343986338</v>
@@ -7069,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>941.9189991784957</v>
+        <v>374.0438447866366</v>
       </c>
       <c r="C37" t="n">
-        <v>769.9464360574117</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="D37" t="n">
-        <v>606.6296631841824</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="E37" t="n">
-        <v>440.4214573370359</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="F37" t="n">
-        <v>268.5596831115964</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="G37" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H37" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L37" t="n">
         <v>741.0109641302445</v>
@@ -7117,28 +7119,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S37" t="n">
-        <v>2282.715740818957</v>
+        <v>2113.204145856409</v>
       </c>
       <c r="T37" t="n">
-        <v>2282.715740818957</v>
+        <v>1869.864798082309</v>
       </c>
       <c r="U37" t="n">
-        <v>2002.531292319261</v>
+        <v>1589.680349582613</v>
       </c>
       <c r="V37" t="n">
-        <v>1720.81982492729</v>
+        <v>1307.968882190642</v>
       </c>
       <c r="W37" t="n">
-        <v>1445.967421099803</v>
+        <v>1033.116478363155</v>
       </c>
       <c r="X37" t="n">
-        <v>1358.427736200819</v>
+        <v>790.5525818089602</v>
       </c>
       <c r="Y37" t="n">
-        <v>1132.084967890561</v>
+        <v>564.2098134987023</v>
       </c>
     </row>
     <row r="38">
@@ -7163,7 +7165,7 @@
         <v>839.4070255988738</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883224</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H38" t="n">
         <v>137.1995846623573</v>
@@ -7172,46 +7174,46 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
         <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>2110.0395278175</v>
+        <v>1715.81204584877</v>
       </c>
       <c r="M38" t="n">
-        <v>3114.325629236558</v>
+        <v>2720.098147267829</v>
       </c>
       <c r="N38" t="n">
-        <v>4090.576687723259</v>
+        <v>3696.34920575453</v>
       </c>
       <c r="O38" t="n">
-        <v>4289.300056251596</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="P38" t="n">
-        <v>4997.579335409524</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q38" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X38" t="n">
         <v>3365.887132399956</v>
@@ -7248,31 +7250,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J39" t="n">
-        <v>381.4468456473314</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K39" t="n">
-        <v>971.931772215671</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L39" t="n">
-        <v>971.931772215671</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M39" t="n">
-        <v>971.931772215671</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N39" t="n">
-        <v>971.931772215671</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O39" t="n">
-        <v>971.931772215671</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P39" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q39" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R39" t="n">
         <v>1910.990343986338</v>
@@ -7306,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>446.1370507523521</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C40" t="n">
-        <v>274.1644876312681</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="D40" t="n">
-        <v>274.1644876312681</v>
+        <v>540.1412617381386</v>
       </c>
       <c r="E40" t="n">
-        <v>274.1644876312681</v>
+        <v>373.9330558909921</v>
       </c>
       <c r="F40" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="G40" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H40" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7357,25 +7359,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2185.297351822124</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T40" t="n">
-        <v>1941.958004048024</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U40" t="n">
-        <v>1661.773555548329</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V40" t="n">
-        <v>1380.062088156358</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W40" t="n">
-        <v>1105.20968432887</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X40" t="n">
-        <v>862.6457877746757</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y40" t="n">
-        <v>636.3030194644177</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1622.680466284615</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C41" t="n">
-        <v>1195.779736297916</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D41" t="n">
-        <v>1195.779736297916</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E41" t="n">
-        <v>769.8027964457732</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F41" t="n">
-        <v>769.8027964457732</v>
+        <v>839.407025598875</v>
       </c>
       <c r="G41" t="n">
-        <v>365.4637340352218</v>
+        <v>435.0679631883236</v>
       </c>
       <c r="H41" t="n">
-        <v>67.59535550925668</v>
+        <v>137.1995846623585</v>
       </c>
       <c r="I41" t="n">
-        <v>67.59535550925668</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>67.59535550925668</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K41" t="n">
-        <v>783.1036634847558</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L41" t="n">
-        <v>1619.596187911807</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M41" t="n">
-        <v>2425.718916153879</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N41" t="n">
-        <v>2425.718916153879</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O41" t="n">
-        <v>3262.211440580931</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P41" t="n">
-        <v>3262.211440580931</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q41" t="n">
-        <v>3262.211440580931</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R41" t="n">
-        <v>3379.767775462833</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S41" t="n">
-        <v>3379.767775462833</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T41" t="n">
-        <v>3379.767775462833</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U41" t="n">
-        <v>3379.767775462833</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V41" t="n">
-        <v>3022.278360589083</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W41" t="n">
-        <v>2625.88701088943</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X41" t="n">
-        <v>2214.167012057177</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y41" t="n">
-        <v>2042.528830576146</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>634.7188465407119</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C42" t="n">
-        <v>517.2129430582166</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D42" t="n">
-        <v>413.3729845735017</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E42" t="n">
-        <v>308.6710508464389</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F42" t="n">
-        <v>215.0252205293431</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G42" t="n">
-        <v>120.9714487469471</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H42" t="n">
-        <v>67.59535550925668</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>67.59535550925668</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J42" t="n">
-        <v>339.2928447888478</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K42" t="n">
-        <v>929.7777713571874</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L42" t="n">
-        <v>929.7777713571874</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M42" t="n">
-        <v>929.7777713571874</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N42" t="n">
-        <v>929.7777713571874</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O42" t="n">
-        <v>929.7777713571874</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P42" t="n">
-        <v>1412.137509226987</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q42" t="n">
-        <v>1876.282986089766</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R42" t="n">
-        <v>1876.282986089766</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S42" t="n">
-        <v>1794.958738651021</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T42" t="n">
-        <v>1653.078802948699</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U42" t="n">
-        <v>1468.310606868336</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V42" t="n">
-        <v>1263.337468007602</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W42" t="n">
-        <v>1066.816090840819</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X42" t="n">
-        <v>903.3387446074822</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y42" t="n">
-        <v>763.6458559607746</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>668.9102294690618</v>
+        <v>941.9189991784958</v>
       </c>
       <c r="C43" t="n">
-        <v>496.9376663479779</v>
+        <v>769.9464360574118</v>
       </c>
       <c r="D43" t="n">
-        <v>333.6208934747486</v>
+        <v>606.6296631841825</v>
       </c>
       <c r="E43" t="n">
-        <v>333.6208934747486</v>
+        <v>440.421457337036</v>
       </c>
       <c r="F43" t="n">
-        <v>333.6208934747486</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3639237689807</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H43" t="n">
-        <v>167.3639237689807</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I43" t="n">
-        <v>67.59535550925668</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>125.0866837334147</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K43" t="n">
-        <v>351.6142849392519</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L43" t="n">
-        <v>706.3036062336727</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M43" t="n">
-        <v>1097.489401203924</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N43" t="n">
-        <v>1474.980912079959</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O43" t="n">
-        <v>1830.409040759722</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P43" t="n">
-        <v>2121.008252681623</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q43" t="n">
-        <v>2248.008382922385</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R43" t="n">
-        <v>2200.969769609558</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S43" t="n">
-        <v>2200.969769609558</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T43" t="n">
-        <v>2164.731182764734</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="U43" t="n">
-        <v>1884.546734265038</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="V43" t="n">
-        <v>1602.835266873067</v>
+        <v>1875.844036582501</v>
       </c>
       <c r="W43" t="n">
-        <v>1327.98286304558</v>
+        <v>1600.991632755014</v>
       </c>
       <c r="X43" t="n">
-        <v>1085.418966491385</v>
+        <v>1358.427736200819</v>
       </c>
       <c r="Y43" t="n">
-        <v>859.0761981811274</v>
+        <v>1132.084967890562</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2505.994140166744</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C44" t="n">
-        <v>2079.093410180044</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D44" t="n">
-        <v>1655.800789365044</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E44" t="n">
-        <v>1229.823849512902</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>804.699667702302</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G44" t="n">
-        <v>400.3606052917506</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H44" t="n">
-        <v>102.4922267657855</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I44" t="n">
-        <v>67.59535550925668</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>67.59535550925668</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K44" t="n">
-        <v>67.59535550925668</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L44" t="n">
-        <v>904.087879936308</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M44" t="n">
-        <v>1589.226391726828</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N44" t="n">
-        <v>2425.718916153879</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O44" t="n">
-        <v>3262.211440580931</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P44" t="n">
-        <v>3262.211440580931</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q44" t="n">
-        <v>3262.211440580931</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R44" t="n">
-        <v>3379.767775462833</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S44" t="n">
-        <v>3275.400481335974</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T44" t="n">
-        <v>3275.400481335974</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U44" t="n">
-        <v>3017.045571932386</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>3017.045571932386</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W44" t="n">
-        <v>3017.045571932386</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X44" t="n">
-        <v>3017.045571932386</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y44" t="n">
-        <v>2925.842504458274</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>634.7188465407119</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C45" t="n">
-        <v>517.2129430582166</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D45" t="n">
-        <v>413.3729845735017</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E45" t="n">
-        <v>308.6710508464389</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F45" t="n">
-        <v>215.0252205293431</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G45" t="n">
-        <v>120.9714487469471</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H45" t="n">
-        <v>67.59535550925668</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>75.04199847116851</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J45" t="n">
-        <v>346.7394877507596</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K45" t="n">
-        <v>346.7394877507596</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L45" t="n">
-        <v>346.7394877507596</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M45" t="n">
-        <v>1039.790461662715</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N45" t="n">
-        <v>1876.282986089766</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="O45" t="n">
-        <v>1876.282986089766</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P45" t="n">
-        <v>1876.282986089766</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q45" t="n">
-        <v>1876.282986089766</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R45" t="n">
-        <v>1876.282986089766</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S45" t="n">
-        <v>1794.958738651021</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T45" t="n">
-        <v>1653.078802948699</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U45" t="n">
-        <v>1468.310606868336</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V45" t="n">
-        <v>1263.337468007602</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W45" t="n">
-        <v>1066.816090840819</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X45" t="n">
-        <v>903.3387446074822</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y45" t="n">
-        <v>763.6458559607746</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1051.007909773769</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="C46" t="n">
-        <v>879.0353466526855</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="D46" t="n">
-        <v>715.7185737794562</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="E46" t="n">
-        <v>549.5103679323097</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="F46" t="n">
-        <v>377.6485937068701</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="G46" t="n">
-        <v>211.3916240011023</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H46" t="n">
-        <v>67.59535550925668</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I46" t="n">
-        <v>67.59535550925668</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>125.0866837334147</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K46" t="n">
-        <v>351.6142849392519</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L46" t="n">
-        <v>706.3036062336727</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M46" t="n">
-        <v>1097.489401203924</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N46" t="n">
-        <v>1474.980912079959</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O46" t="n">
-        <v>1830.409040759722</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P46" t="n">
-        <v>2121.008252681623</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q46" t="n">
-        <v>2248.008382922385</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R46" t="n">
-        <v>2248.008382922385</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S46" t="n">
-        <v>2248.008382922385</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T46" t="n">
-        <v>2004.669035148285</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U46" t="n">
-        <v>1850.135677547422</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V46" t="n">
-        <v>1568.424210155451</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W46" t="n">
-        <v>1293.571806327964</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X46" t="n">
-        <v>1051.007909773769</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y46" t="n">
-        <v>1051.007909773769</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
   </sheetData>
@@ -7976,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>35.76460079480934</v>
+        <v>519.5412919487783</v>
       </c>
       <c r="L2" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>480.1887482250049</v>
+        <v>521.2079540534007</v>
       </c>
       <c r="N2" t="n">
-        <v>498.6795285947802</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>498.7908651163583</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>498.9752675705655</v>
+        <v>39.87991497762398</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8052,34 +8054,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>483.7991395936675</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>101.0427079326425</v>
+        <v>506.873471666297</v>
       </c>
       <c r="N3" t="n">
-        <v>482.7429339738759</v>
+        <v>505.1197193675106</v>
       </c>
       <c r="O3" t="n">
-        <v>484.5717954825564</v>
+        <v>506.9485808761912</v>
       </c>
       <c r="P3" t="n">
-        <v>21.77084120482866</v>
+        <v>397.3979703494975</v>
       </c>
       <c r="Q3" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8137,7 +8139,7 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K4" t="n">
-        <v>60.65522297608413</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L4" t="n">
         <v>380.1908016072373</v>
@@ -8149,7 +8151,7 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O4" t="n">
-        <v>381.5174992961649</v>
+        <v>280.9953380591445</v>
       </c>
       <c r="P4" t="n">
         <v>315.9153581548562</v>
@@ -8216,16 +8218,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>181.710741931019</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>593.5074359500402</v>
+        <v>181.5591018660332</v>
       </c>
       <c r="O5" t="n">
         <v>593.6187724716183</v>
@@ -8289,22 +8291,22 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>97.8252091287798</v>
       </c>
       <c r="L6" t="n">
-        <v>177.813198534673</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M6" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O6" t="n">
         <v>579.3997028378163</v>
@@ -8313,7 +8315,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
         <v>106.5207073584907</v>
@@ -8377,7 +8379,7 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L7" t="n">
-        <v>380.1908016072373</v>
+        <v>380.190801607238</v>
       </c>
       <c r="M7" t="n">
         <v>417.7126065281028</v>
@@ -8453,28 +8455,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>203.2524428583638</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M8" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N8" t="n">
         <v>593.5074359500402</v>
       </c>
       <c r="O8" t="n">
-        <v>593.6187724716183</v>
+        <v>86.13502881159596</v>
       </c>
       <c r="P8" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R8" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8526,34 +8528,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>578.7428998298237</v>
+        <v>379.7269667620468</v>
       </c>
       <c r="M9" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N9" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O9" t="n">
-        <v>261.3177895070124</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8690,28 +8692,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>883.2539862983315</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>882.3732067651404</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
-        <v>150.6323032591614</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>753.0089771212694</v>
+        <v>100.0581876036193</v>
       </c>
       <c r="Q11" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R11" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8772,19 +8774,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>281.0983080424724</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>21.34302821354166</v>
+        <v>949.8342934347922</v>
       </c>
       <c r="O12" t="n">
-        <v>868.1138335879308</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P12" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
         <v>22.7470382889785</v>
@@ -8927,22 +8929,22 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>883.2539862983315</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>882.3732067651404</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>882.2215667001547</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>363.1839421576652</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>100.0581876036193</v>
       </c>
       <c r="Q14" t="n">
         <v>36.12467460459804</v>
@@ -9006,25 +9008,25 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>382.648675651153</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N15" t="n">
-        <v>21.34302821354166</v>
+        <v>507.2052537942219</v>
       </c>
       <c r="O15" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
         <v>23.67291939414415</v>
@@ -9161,10 +9163,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K17" t="n">
-        <v>105.5494758988752</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
         <v>977.3272420480539</v>
@@ -9179,13 +9181,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>153.7764225027789</v>
+        <v>121.8329647736533</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9249,13 +9251,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>23.09678051232798</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N18" t="n">
         <v>1121.661155963915</v>
       </c>
       <c r="O18" t="n">
-        <v>749.810964578424</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
         <v>21.77084120482866</v>
@@ -9398,10 +9400,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K20" t="n">
-        <v>758.5002654165255</v>
+        <v>590.5593685239236</v>
       </c>
       <c r="L20" t="n">
         <v>977.3272420480539</v>
@@ -9416,13 +9418,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>100.0581876036193</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R20" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9480,22 +9482,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M21" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>407.0273017394389</v>
       </c>
       <c r="Q21" t="n">
         <v>22.7470382889785</v>
@@ -9720,13 +9722,13 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L24" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M24" t="n">
-        <v>749.7358553685299</v>
+        <v>1004.802661823039</v>
       </c>
       <c r="N24" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
@@ -9960,13 +9962,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>951.5880457335786</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N27" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O27" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
         <v>21.77084120482866</v>
@@ -10109,13 +10111,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
-        <v>758.5002654165255</v>
+        <v>702.6160445827093</v>
       </c>
       <c r="L29" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M29" t="n">
         <v>1051.861668373228</v>
@@ -10127,10 +10129,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
         <v>35.03264989479647</v>
@@ -10194,16 +10196,16 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L30" t="n">
-        <v>22.51508671422956</v>
+        <v>782.8192206581333</v>
       </c>
       <c r="M30" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N30" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>749.810964578424</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
         <v>21.77084120482866</v>
@@ -10346,19 +10348,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K32" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L32" t="n">
-        <v>977.3272420480539</v>
+        <v>952.6858336296069</v>
       </c>
       <c r="M32" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N32" t="n">
-        <v>924.1790155406098</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O32" t="n">
         <v>891.0724241548241</v>
@@ -10431,19 +10433,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>23.09678051232798</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N33" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O33" t="n">
-        <v>281.4457336203087</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q33" t="n">
         <v>22.7470382889785</v>
@@ -10583,10 +10585,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>395.6860795026527</v>
+        <v>123.5223236751217</v>
       </c>
       <c r="K35" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L35" t="n">
         <v>977.3272420480539</v>
@@ -10598,16 +10600,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O35" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>493.0472488628395</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J36" t="n">
         <v>20.61111433333334</v>
@@ -10671,13 +10673,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>774.1253005797566</v>
+        <v>949.8342934347922</v>
       </c>
       <c r="O36" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P36" t="n">
         <v>21.77084120482866</v>
@@ -10826,7 +10828,7 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>977.3272420480539</v>
+        <v>579.1176643018625</v>
       </c>
       <c r="M38" t="n">
         <v>1051.861668373228</v>
@@ -10835,13 +10837,13 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O38" t="n">
-        <v>238.1216346371733</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q38" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
         <v>153.7764225027789</v>
@@ -10896,34 +10898,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J39" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K39" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L39" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N39" t="n">
-        <v>21.34302821354166</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O39" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>418.6332501171365</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q39" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R39" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11060,25 +11062,25 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K41" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L41" t="n">
-        <v>883.2539862983313</v>
+        <v>952.6858336296069</v>
       </c>
       <c r="M41" t="n">
-        <v>851.696644962131</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>882.3329032217325</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
         <v>153.7764225027789</v>
@@ -11136,16 +11138,16 @@
         <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M42" t="n">
-        <v>23.09678051232798</v>
+        <v>1004.802661823039</v>
       </c>
       <c r="N42" t="n">
         <v>21.34302821354166</v>
@@ -11154,10 +11156,10 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>509.0028996591718</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R42" t="n">
         <v>23.67291939414415</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L44" t="n">
-        <v>883.2539862983313</v>
+        <v>586.4197136125407</v>
       </c>
       <c r="M44" t="n">
-        <v>729.4903657181392</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>882.2215667001544</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
-        <v>882.3329032217325</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
         <v>153.7764225027789</v>
@@ -11370,31 +11372,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>723.1482693122831</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>866.28497207925</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>23.17188972222222</v>
+        <v>61.41381912716452</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
         <v>23.67291939414415</v>
@@ -23258,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>359.5006778940745</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23306,19 +23308,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23419,13 +23421,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>120.5665845686774</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>103.0286489466765</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23436,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23473,10 +23475,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23510,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407056</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>103.2668588201116</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23656,13 +23658,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>164.5944000087102</v>
@@ -23671,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>44.20464122293424</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>3.081954296383969</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23893,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23941,13 +23943,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>8.616978063369743</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>153.4739695386609</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,13 +24129,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>146.245348522263</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24142,7 +24144,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>98.77088257712678</v>
@@ -24175,7 +24177,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>71.9894918991922</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -24373,7 +24375,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>71.9894918991925</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
         <v>164.5944000087102</v>
@@ -24382,7 +24384,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0.6172179931341049</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24604,16 +24606,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
         <v>142.3583058069271</v>
@@ -24649,13 +24651,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>44.5250625300167</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24850,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>153.4739695386591</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>211.9695101815324</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -25075,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>161.683605144497</v>
@@ -25087,7 +25089,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>66.33105441802952</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
         <v>142.3583058069271</v>
@@ -25123,7 +25125,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25315,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>47.18544517283263</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25375,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>153.473969538659</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25549,13 +25551,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>158.3035689135616</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25567,7 +25569,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25599,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>71.9894918991922</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25631,13 +25633,13 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25646,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25694,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>231.3620976784373</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25792,10 +25794,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25804,7 +25806,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,13 +25839,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>205.0297533199831</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>163.565547000018</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25916,22 +25918,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>310.992860545287</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26020,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>19.29091348988666</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>124.3945799898449</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>524937.6735533184</v>
+        <v>525396.6372437113</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>396305.3342816407</v>
+        <v>520408.8295412345</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>396305.3342816408</v>
+        <v>520408.8295412345</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>520408.8295412344</v>
+        <v>520408.8295412345</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>520408.8295412345</v>
+        <v>520408.8295412346</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>520408.8295412346</v>
+        <v>520408.8295412345</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>520408.8295412346</v>
+        <v>520408.8295412345</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>520408.8295412345</v>
+        <v>520408.8295412346</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>396305.3342816408</v>
+        <v>520408.8295412345</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>396305.3342816406</v>
+        <v>520408.8295412345</v>
       </c>
     </row>
   </sheetData>
@@ -26317,43 +26319,43 @@
         <v>509637.3345097678</v>
       </c>
       <c r="D2" t="n">
-        <v>509637.3345097678</v>
+        <v>509637.3345097677</v>
       </c>
       <c r="E2" t="n">
-        <v>374510.1064119242</v>
+        <v>491776.6027452663</v>
       </c>
       <c r="F2" t="n">
-        <v>374510.1064119242</v>
+        <v>491776.6027452662</v>
       </c>
       <c r="G2" t="n">
         <v>491776.6027452663</v>
       </c>
       <c r="H2" t="n">
-        <v>491776.6027452663</v>
+        <v>491776.6027452662</v>
       </c>
       <c r="I2" t="n">
         <v>491776.6027452663</v>
       </c>
       <c r="J2" t="n">
+        <v>491776.6027452664</v>
+      </c>
+      <c r="K2" t="n">
+        <v>491776.6027452664</v>
+      </c>
+      <c r="L2" t="n">
         <v>491776.6027452663</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
+        <v>491776.6027452662</v>
+      </c>
+      <c r="N2" t="n">
+        <v>491776.6027452666</v>
+      </c>
+      <c r="O2" t="n">
         <v>491776.6027452663</v>
       </c>
-      <c r="L2" t="n">
-        <v>491776.6027452664</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>491776.6027452663</v>
-      </c>
-      <c r="N2" t="n">
-        <v>491776.6027452663</v>
-      </c>
-      <c r="O2" t="n">
-        <v>374510.1064119244</v>
-      </c>
-      <c r="P2" t="n">
-        <v>374510.1064119242</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>154625.7206181205</v>
+        <v>162124.6960695915</v>
       </c>
       <c r="C3" t="n">
-        <v>30636.11708120827</v>
+        <v>23406.83367361191</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>86203.68773110765</v>
+        <v>215739.3565566405</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>118909.5773635237</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>120722.5169427569</v>
+        <v>126577.2685802891</v>
       </c>
       <c r="K3" t="n">
-        <v>24405.66886020853</v>
+        <v>18646.60035701955</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>71948.71623945147</v>
+        <v>180063.8714551677</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>176510.6008550963</v>
+        <v>171848.3668116664</v>
       </c>
       <c r="C4" t="n">
         <v>156753.0758057354</v>
@@ -26424,19 +26426,19 @@
         <v>156753.0758057354</v>
       </c>
       <c r="E4" t="n">
-        <v>22390.17816187193</v>
+        <v>29432.28705591145</v>
       </c>
       <c r="F4" t="n">
-        <v>22390.17816187196</v>
+        <v>29432.28705591145</v>
       </c>
       <c r="G4" t="n">
-        <v>29432.28705591145</v>
+        <v>29432.28705591137</v>
       </c>
       <c r="H4" t="n">
-        <v>29432.28705591147</v>
+        <v>29432.28705591138</v>
       </c>
       <c r="I4" t="n">
-        <v>29432.2870559115</v>
+        <v>29432.28705591151</v>
       </c>
       <c r="J4" t="n">
         <v>29432.2870559115</v>
@@ -26451,13 +26453,13 @@
         <v>29432.2870559115</v>
       </c>
       <c r="N4" t="n">
-        <v>29432.2870559115</v>
+        <v>29432.28705591148</v>
       </c>
       <c r="O4" t="n">
-        <v>22390.17816187198</v>
+        <v>29432.28705591145</v>
       </c>
       <c r="P4" t="n">
-        <v>22390.17816187198</v>
+        <v>29432.28705591145</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>61680.71427022832</v>
+        <v>63041.22282216131</v>
       </c>
       <c r="C5" t="n">
         <v>67446.25103742813</v>
@@ -26476,10 +26478,10 @@
         <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>51372.47018703508</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="F5" t="n">
-        <v>51372.47018703508</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="G5" t="n">
         <v>77750.06218842969</v>
@@ -26500,16 +26502,16 @@
         <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>51372.47018703507</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="P5" t="n">
-        <v>51372.47018703507</v>
+        <v>77750.06218842969</v>
       </c>
     </row>
     <row r="6">
@@ -26519,22 +26521,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>116820.2987663226</v>
+        <v>112623.0488063485</v>
       </c>
       <c r="C6" t="n">
-        <v>254801.890585396</v>
+        <v>262031.1739929924</v>
       </c>
       <c r="D6" t="n">
-        <v>285438.0076666042</v>
+        <v>285438.0076666041</v>
       </c>
       <c r="E6" t="n">
-        <v>214543.7703319096</v>
+        <v>168854.8969442847</v>
       </c>
       <c r="F6" t="n">
-        <v>300747.4580630172</v>
+        <v>384594.2535009251</v>
       </c>
       <c r="G6" t="n">
-        <v>265684.6761374015</v>
+        <v>384594.2535009253</v>
       </c>
       <c r="H6" t="n">
         <v>384594.2535009251</v>
@@ -26543,25 +26545,25 @@
         <v>384594.2535009251</v>
       </c>
       <c r="J6" t="n">
-        <v>263871.7365581683</v>
+        <v>258016.9849206362</v>
       </c>
       <c r="K6" t="n">
-        <v>360188.5846407166</v>
+        <v>365947.6531439057</v>
       </c>
       <c r="L6" t="n">
-        <v>384594.2535009252</v>
+        <v>384594.2535009251</v>
       </c>
       <c r="M6" t="n">
-        <v>312645.5372614737</v>
+        <v>204530.3820457573</v>
       </c>
       <c r="N6" t="n">
+        <v>384594.2535009254</v>
+      </c>
+      <c r="O6" t="n">
         <v>384594.2535009251</v>
       </c>
-      <c r="O6" t="n">
-        <v>300747.4580630173</v>
-      </c>
       <c r="P6" t="n">
-        <v>300747.4580630172</v>
+        <v>384594.2535009251</v>
       </c>
     </row>
   </sheetData>
@@ -26787,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.776691153969</v>
       </c>
       <c r="C4" t="n">
         <v>556.2278131155941</v>
@@ -26796,10 +26798,10 @@
         <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>844.9419438657086</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="F4" t="n">
-        <v>844.9419438657086</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26826,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>844.9419438657084</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="P4" t="n">
-        <v>844.9419438657084</v>
+        <v>1278.783917572857</v>
       </c>
     </row>
   </sheetData>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.776691153969</v>
       </c>
       <c r="C4" t="n">
-        <v>94.82790735525992</v>
+        <v>72.45112196162518</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>288.7141307501145</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>433.8419737071482</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.776691153969</v>
       </c>
       <c r="K4" t="n">
-        <v>94.82790735525992</v>
+        <v>72.45112196162518</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>288.7141307501142</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.776691153969</v>
       </c>
       <c r="K4" t="n">
-        <v>94.82790735525992</v>
+        <v>72.45112196162518</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>288.7141307501145</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>433.8419737071482</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27382,22 +27384,22 @@
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>56.38454581829626</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>288.9113352437281</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27436,16 +27438,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27540,10 +27542,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27552,7 +27554,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27588,22 +27590,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>198.1060208498878</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>150.0000851585037</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>350.5048792244489</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>400</v>
       </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,7 +27669,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>203.769097014226</v>
       </c>
       <c r="U5" t="n">
         <v>255.7713603095518</v>
@@ -27679,10 +27681,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>400</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27780,16 +27782,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>3.531342535067012</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27828,16 +27830,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>264.6639778711375</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27853,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>385.0527817684122</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>342.9323154271056</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27913,10 +27915,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>400</v>
@@ -28008,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
         <v>161.683605144497</v>
@@ -28026,7 +28028,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>58.2064049563001</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>129.2493699950607</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28090,19 +28092,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>-3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28153,10 +28155,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>-9.723605828561443e-13</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>-3.218023548783847e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28324,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>-3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>-3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>-3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>-3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>-3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>-3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>-3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>-3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>-3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>-3.218023548783847e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28731,7 +28733,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.658904446802914e-12</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -28816,7 +28818,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>-7.71678812803845e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>483.776691153969</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>442.7574853255731</v>
+        <v>483.776691153969</v>
       </c>
       <c r="N2" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>461.3999057603342</v>
+        <v>2.30455316739268</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34772,34 +34774,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>77.9459274203145</v>
+        <v>483.776691153969</v>
       </c>
       <c r="N3" t="n">
-        <v>461.3999057603342</v>
+        <v>483.776691153969</v>
       </c>
       <c r="O3" t="n">
-        <v>461.3999057603342</v>
+        <v>483.776691153969</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>375.6271291446688</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34857,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>39.69056852337214</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L4" t="n">
         <v>358.2720417115361</v>
@@ -34869,7 +34871,7 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O4" t="n">
-        <v>359.0183117977405</v>
+        <v>258.49615056072</v>
       </c>
       <c r="P4" t="n">
         <v>293.5345574968697</v>
@@ -34936,16 +34938,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
         <v>144.2794790315872</v>
-      </c>
-      <c r="N5" t="n">
-        <v>556.2278131155941</v>
       </c>
       <c r="O5" t="n">
         <v>556.2278131155941</v>
@@ -35009,22 +35011,22 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>75.42597529544646</v>
       </c>
       <c r="L6" t="n">
-        <v>155.2981118204434</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>556.2278131155941</v>
@@ -35033,7 +35035,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>82.84778796434657</v>
@@ -35097,7 +35099,7 @@
         <v>228.8157587937749</v>
       </c>
       <c r="L7" t="n">
-        <v>358.2720417115361</v>
+        <v>358.2720417115368</v>
       </c>
       <c r="M7" t="n">
         <v>395.137166636617</v>
@@ -35173,28 +35175,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>167.4878420635545</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N8" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="O8" t="n">
-        <v>556.2278131155941</v>
+        <v>48.74406945557187</v>
       </c>
       <c r="P8" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35246,34 +35248,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
+        <v>357.2118800478173</v>
+      </c>
+      <c r="M9" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O9" t="n">
-        <v>238.1458997847902</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35410,28 +35412,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>844.9419438657086</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>844.9419438657086</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
-        <v>113.3526804247154</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>715.433615311038</v>
+        <v>62.48282579338804</v>
       </c>
       <c r="Q11" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,19 +35494,19 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>258.5832213282428</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="O12" t="n">
-        <v>844.9419438657086</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P12" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35647,22 +35649,22 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>844.9419438657086</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>844.9419438657086</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>844.9419438657086</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>325.7929828016411</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>62.48282579338804</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35726,25 +35728,25 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
-        <v>360.2494418178197</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>485.8622255806802</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,10 +35883,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>69.78487510406583</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
         <v>939.015199615431</v>
@@ -35899,13 +35901,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>118.7437726079824</v>
+        <v>86.80031487885682</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35969,13 +35971,13 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N18" t="n">
         <v>1100.318127750374</v>
       </c>
       <c r="O18" t="n">
-        <v>726.6390748562018</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36057,7 +36059,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P19" t="n">
-        <v>293.5345574968697</v>
+        <v>293.5345574968675</v>
       </c>
       <c r="Q19" t="n">
         <v>128.2829598391535</v>
@@ -36118,10 +36120,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>722.7356646217162</v>
+        <v>554.7947677291143</v>
       </c>
       <c r="L20" t="n">
         <v>939.015199615431</v>
@@ -36136,13 +36138,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>62.48282579338804</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,22 +36202,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M21" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>385.2564605346102</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36440,13 +36442,13 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M24" t="n">
-        <v>726.6390748562019</v>
+        <v>981.7058813107108</v>
       </c>
       <c r="N24" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36680,13 +36682,13 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>928.4912652212506</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O27" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36829,13 +36831,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
-        <v>722.7356646217162</v>
+        <v>666.8514437878999</v>
       </c>
       <c r="L29" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>1014.430405473796</v>
@@ -36847,10 +36849,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36914,16 +36916,16 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>760.3041339439037</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N30" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>726.6390748562018</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37066,19 +37068,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>939.015199615431</v>
+        <v>914.373791196984</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N32" t="n">
-        <v>886.8993927061638</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O32" t="n">
         <v>853.6814647988001</v>
@@ -37151,19 +37153,19 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O33" t="n">
-        <v>258.2738438980865</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37303,10 +37305,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>366.2661200170662</v>
+        <v>94.10236418953517</v>
       </c>
       <c r="K35" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>939.015199615431</v>
@@ -37318,16 +37320,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>455.4718870526082</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37391,13 +37393,13 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>752.782272366215</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37546,7 +37548,7 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>939.015199615431</v>
+        <v>540.8056218692396</v>
       </c>
       <c r="M38" t="n">
         <v>1014.430405473796</v>
@@ -37555,13 +37557,13 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O38" t="n">
-        <v>200.7306752811492</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
         <v>118.7437726079824</v>
@@ -37616,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>396.8624089123078</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37780,25 +37782,25 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>844.9419438657084</v>
+        <v>914.373791196984</v>
       </c>
       <c r="M41" t="n">
-        <v>814.2653820626992</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>844.9419438657084</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
         <v>118.7437726079824</v>
@@ -37856,16 +37858,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>981.7058813107108</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -37874,10 +37876,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>487.2320584543431</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>844.9419438657084</v>
+        <v>548.1076711799178</v>
       </c>
       <c r="M44" t="n">
-        <v>692.0591028187074</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>844.9419438657084</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
-        <v>844.9419438657084</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
         <v>118.7437726079824</v>
@@ -38090,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>700.0514887999551</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>844.9419438657084</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>38.24192940494229</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_2_35.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_2_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2485173.859058476</v>
+        <v>2484477.197853385</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11843801.51954496</v>
+        <v>11843801.51954495</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>612367.9462114758</v>
+        <v>612367.9462114756</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6034749.336268168</v>
+        <v>6034749.336268167</v>
       </c>
     </row>
     <row r="11">
@@ -661,25 +661,25 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C2" t="n">
-        <v>22.63172268683286</v>
+        <v>202.4961060847279</v>
       </c>
       <c r="D2" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
-        <v>132.8058352098929</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="3">
@@ -822,10 +822,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
         <v>170.1431564831852</v>
@@ -834,7 +834,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
         <v>98.77088257712678</v>
@@ -870,19 +870,19 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>79.276583164811</v>
+        <v>160.9190842242647</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415.6498806486147</v>
+        <v>159.7080630013533</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
         <v>20.87293999249374</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>14.94721823158723</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -1068,7 +1068,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>25.13775189891358</v>
       </c>
       <c r="U7" t="n">
-        <v>12.71862614356119</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
@@ -1132,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>196.763108065092</v>
       </c>
       <c r="C8" t="n">
         <v>22.63172268683286</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
-        <v>78.78485502651539</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
         <v>0.2956717864458369</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
         <v>392.4274362026566</v>
@@ -1201,7 +1201,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -1290,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>27.27731368981162</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>84.15190085062704</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
         <v>98.77088257712678</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>168.4336970060565</v>
@@ -1353,7 +1353,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
         <v>240.1382575886529</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486148</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
@@ -1378,19 +1378,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>421.7171704536211</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924938</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864459</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407056</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>34.54790254396359</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.3236211855911</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458133</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095519</v>
+        <v>255.771360309553</v>
       </c>
       <c r="V11" t="n">
-        <v>353.9145207250131</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439303</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
         <v>401.2838973446586</v>
@@ -1533,19 +1533,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>67.11450753650865</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
         <v>98.77088257712678</v>
@@ -1578,10 +1578,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>277.3826040146988</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>109.826847404852</v>
       </c>
       <c r="X13" t="n">
         <v>240.1382575886529</v>
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486148</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>419.0596946068506</v>
       </c>
       <c r="E14" t="n">
-        <v>421.7171704536211</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924938</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864459</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407056</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>34.54790254396359</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,19 +1660,19 @@
         <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458133</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095519</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>353.9145207250131</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439303</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -1773,13 +1773,13 @@
         <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
         <v>142.3583058069271</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1824,10 +1824,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W16" t="n">
-        <v>269.0219254928281</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
         <v>240.1382575886529</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486148</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
         <v>422.6317226868329</v>
@@ -1852,19 +1852,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>421.7171704536211</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924938</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
-        <v>294.8896947407056</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>34.54790254396359</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>103.3236211855911</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
-        <v>218.7163152458144</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U17" t="n">
-        <v>255.7713603095519</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V17" t="n">
-        <v>353.9145207250131</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439303</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
         <v>401.2838973446586</v>
@@ -2007,16 +2007,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>125.4203831793905</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
         <v>272.1038797892121</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486148</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
         <v>422.6317226868329</v>
@@ -2089,19 +2089,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>421.7171704536211</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924938</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>400.2956717864459</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H20" t="n">
-        <v>294.8896947407056</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>34.54790254396242</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>103.3236211855911</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T20" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U20" t="n">
-        <v>255.7713603095519</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V20" t="n">
-        <v>353.9145207250149</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439303</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
         <v>401.2838973446586</v>
@@ -2241,22 +2241,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>18.30077526641196</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>49.87597792716544</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
@@ -2307,7 +2307,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>98.15366458399268</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.15366458399268</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399268</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>96.44420510686429</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
@@ -2955,22 +2955,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>65.41309383316636</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855919</v>
       </c>
       <c r="T35" t="n">
         <v>218.7163152458132</v>
@@ -3435,16 +3435,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>121.2482518332239</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
         <v>240.905954296359</v>
@@ -3486,13 +3486,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>259.5993285084649</v>
       </c>
       <c r="X37" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486152</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
         <v>422.6317226868329</v>
@@ -3663,16 +3663,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>3.380036230935347</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399268</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
         <v>240.905954296359</v>
@@ -3760,7 +3760,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>34.54790254396463</v>
+        <v>34.54790254396433</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3903,10 +3903,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>40.79871210679603</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
@@ -3957,7 +3957,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>115.3288057180334</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
@@ -3997,7 +3997,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396433</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439313</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -4134,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>168.9733955350583</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
         <v>142.3583058069271</v>
@@ -4188,16 +4188,16 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>218.7757544134943</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>640.3848264867772</v>
+        <v>1552.83292869444</v>
       </c>
       <c r="C2" t="n">
-        <v>617.5245005404814</v>
+        <v>1348.291407396735</v>
       </c>
       <c r="D2" t="n">
-        <v>598.2722837658857</v>
+        <v>924.9987865817357</v>
       </c>
       <c r="E2" t="n">
-        <v>464.1249754730646</v>
+        <v>499.0218467295933</v>
       </c>
       <c r="F2" t="n">
-        <v>39.00079366246482</v>
+        <v>477.9380689593976</v>
       </c>
       <c r="G2" t="n">
-        <v>38.70213529231751</v>
+        <v>73.59900654884622</v>
       </c>
       <c r="H2" t="n">
-        <v>38.70213529231751</v>
+        <v>73.59900654884622</v>
       </c>
       <c r="I2" t="n">
-        <v>38.70213529231751</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="J2" t="n">
-        <v>401.305594109213</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="K2" t="n">
-        <v>880.2445183516422</v>
+        <v>498.2899918885869</v>
       </c>
       <c r="L2" t="n">
-        <v>880.2445183516422</v>
+        <v>498.2899918885869</v>
       </c>
       <c r="M2" t="n">
-        <v>1359.183442594071</v>
+        <v>498.2899918885869</v>
       </c>
       <c r="N2" t="n">
-        <v>1359.183442594071</v>
+        <v>977.228916131015</v>
       </c>
       <c r="O2" t="n">
-        <v>1359.183442594071</v>
+        <v>1456.167840373443</v>
       </c>
       <c r="P2" t="n">
-        <v>1361.46495022979</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="Q2" t="n">
-        <v>1817.550429733973</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="R2" t="n">
-        <v>1935.106764615876</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="S2" t="n">
-        <v>1830.739470489016</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="T2" t="n">
-        <v>1830.739470489016</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="U2" t="n">
-        <v>1830.739470489016</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="V2" t="n">
-        <v>1473.250055615266</v>
+        <v>1577.617349742121</v>
       </c>
       <c r="W2" t="n">
-        <v>1473.250055615266</v>
+        <v>1577.617349742121</v>
       </c>
       <c r="X2" t="n">
-        <v>1061.530056783013</v>
+        <v>1569.937754950272</v>
       </c>
       <c r="Y2" t="n">
-        <v>656.1927867379032</v>
+        <v>1568.640888945566</v>
       </c>
     </row>
     <row r="3">
@@ -4385,46 +4385,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>605.8256263237728</v>
+        <v>605.8256263237727</v>
       </c>
       <c r="C3" t="n">
-        <v>488.3197228412776</v>
+        <v>488.3197228412774</v>
       </c>
       <c r="D3" t="n">
-        <v>384.4797643565626</v>
+        <v>384.4797643565624</v>
       </c>
       <c r="E3" t="n">
-        <v>279.7778306294998</v>
+        <v>279.7778306294996</v>
       </c>
       <c r="F3" t="n">
-        <v>186.1320003124039</v>
+        <v>186.1320003124038</v>
       </c>
       <c r="G3" t="n">
-        <v>92.07822853000792</v>
+        <v>92.07822853000783</v>
       </c>
       <c r="H3" t="n">
-        <v>38.70213529231751</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="I3" t="n">
-        <v>38.70213529231751</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="J3" t="n">
-        <v>38.70213529231751</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="K3" t="n">
-        <v>38.70213529231751</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="L3" t="n">
-        <v>38.70213529231751</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="M3" t="n">
-        <v>517.6410595347468</v>
+        <v>517.6410595347455</v>
       </c>
       <c r="N3" t="n">
-        <v>996.579983777176</v>
+        <v>996.5799837771737</v>
       </c>
       <c r="O3" t="n">
-        <v>1475.518908019605</v>
+        <v>1475.518908019602</v>
       </c>
       <c r="P3" t="n">
         <v>1847.389765872827</v>
@@ -4451,10 +4451,10 @@
         <v>1037.92287062388</v>
       </c>
       <c r="X3" t="n">
-        <v>874.4455243905431</v>
+        <v>874.445524390543</v>
       </c>
       <c r="Y3" t="n">
-        <v>734.7526357438355</v>
+        <v>734.7526357438354</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>648.5620106043331</v>
+        <v>1121.883257816554</v>
       </c>
       <c r="C4" t="n">
-        <v>476.589447483249</v>
+        <v>949.9106946954703</v>
       </c>
       <c r="D4" t="n">
-        <v>476.589447483249</v>
+        <v>786.593921822241</v>
       </c>
       <c r="E4" t="n">
-        <v>476.589447483249</v>
+        <v>620.3857159750945</v>
       </c>
       <c r="F4" t="n">
-        <v>304.7276732578094</v>
+        <v>448.523941749655</v>
       </c>
       <c r="G4" t="n">
-        <v>138.4707035520416</v>
+        <v>282.2669720438871</v>
       </c>
       <c r="H4" t="n">
-        <v>138.4707035520416</v>
+        <v>138.4707035520415</v>
       </c>
       <c r="I4" t="n">
-        <v>38.70213529231751</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="J4" t="n">
-        <v>38.70213529231751</v>
+        <v>96.19346351647545</v>
       </c>
       <c r="K4" t="n">
-        <v>265.2297364981547</v>
+        <v>322.7210647223126</v>
       </c>
       <c r="L4" t="n">
-        <v>619.9190577925755</v>
+        <v>677.4103860167334</v>
       </c>
       <c r="M4" t="n">
-        <v>1011.104852762826</v>
+        <v>1068.596180986984</v>
       </c>
       <c r="N4" t="n">
-        <v>1388.596363638862</v>
+        <v>1446.08769186302</v>
       </c>
       <c r="O4" t="n">
-        <v>1644.507552693975</v>
+        <v>1801.515820542783</v>
       </c>
       <c r="P4" t="n">
-        <v>1935.106764615876</v>
+        <v>1808.106634375109</v>
       </c>
       <c r="Q4" t="n">
-        <v>1935.106764615876</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="R4" t="n">
-        <v>1888.068151303049</v>
+        <v>1888.068151303044</v>
       </c>
       <c r="S4" t="n">
-        <v>1717.933103822184</v>
+        <v>1717.933103822179</v>
       </c>
       <c r="T4" t="n">
-        <v>1717.933103822184</v>
+        <v>1474.593756048079</v>
       </c>
       <c r="U4" t="n">
-        <v>1637.855747090052</v>
+        <v>1312.04922652862</v>
       </c>
       <c r="V4" t="n">
-        <v>1356.14427969808</v>
+        <v>1312.04922652862</v>
       </c>
       <c r="W4" t="n">
-        <v>1081.291875870593</v>
+        <v>1312.04922652862</v>
       </c>
       <c r="X4" t="n">
-        <v>838.7279793163987</v>
+        <v>1312.04922652862</v>
       </c>
       <c r="Y4" t="n">
-        <v>838.7279793163987</v>
+        <v>1312.04922652862</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1376.947823099961</v>
+        <v>129.9297397222204</v>
       </c>
       <c r="C5" t="n">
-        <v>950.0470931132616</v>
+        <v>107.0694137759246</v>
       </c>
       <c r="D5" t="n">
-        <v>526.7544722982618</v>
+        <v>87.81719700132894</v>
       </c>
       <c r="E5" t="n">
-        <v>100.7775324461193</v>
+        <v>65.88066118959054</v>
       </c>
       <c r="F5" t="n">
-        <v>79.69375467592363</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G5" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H5" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I5" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K5" t="n">
-        <v>957.7672188505812</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L5" t="n">
-        <v>957.7672188505812</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M5" t="n">
-        <v>957.7672188505812</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="N5" t="n">
-        <v>1100.603903091853</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="O5" t="n">
-        <v>1651.269438076291</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P5" t="n">
-        <v>1651.269438076291</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q5" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R5" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>2209.81305222845</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U5" t="n">
-        <v>2209.81305222845</v>
+        <v>1862.189048931929</v>
       </c>
       <c r="V5" t="n">
-        <v>2209.81305222845</v>
+        <v>1504.699634058179</v>
       </c>
       <c r="W5" t="n">
-        <v>2209.81305222845</v>
+        <v>1108.308284358525</v>
       </c>
       <c r="X5" t="n">
-        <v>1798.093053396197</v>
+        <v>696.5882855262728</v>
       </c>
       <c r="Y5" t="n">
-        <v>1796.796187391491</v>
+        <v>291.2510154811631</v>
       </c>
     </row>
     <row r="6">
@@ -4649,25 +4649,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="K6" t="n">
-        <v>119.1699405917395</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L6" t="n">
-        <v>669.8354755761777</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="M6" t="n">
-        <v>669.8354755761777</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="N6" t="n">
-        <v>1220.501010560616</v>
+        <v>287.7093087981016</v>
       </c>
       <c r="O6" t="n">
-        <v>1771.166545545054</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="P6" t="n">
-        <v>1771.166545545054</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q6" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R6" t="n">
         <v>1853.185855629757</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>817.6261093758709</v>
+        <v>983.8830790816388</v>
       </c>
       <c r="C7" t="n">
-        <v>645.6535462547869</v>
+        <v>811.9105159605548</v>
       </c>
       <c r="D7" t="n">
-        <v>482.3367733815576</v>
+        <v>648.5937430873255</v>
       </c>
       <c r="E7" t="n">
-        <v>316.1285675344111</v>
+        <v>482.385537240179</v>
       </c>
       <c r="F7" t="n">
-        <v>144.2667933089716</v>
+        <v>310.5237630147394</v>
       </c>
       <c r="G7" t="n">
         <v>144.2667933089716</v>
@@ -4725,10 +4725,10 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>101.9895532734055</v>
+        <v>101.9895532734062</v>
       </c>
       <c r="K7" t="n">
-        <v>328.5171544792427</v>
+        <v>328.5171544792433</v>
       </c>
       <c r="L7" t="n">
         <v>683.2064757736641</v>
@@ -4749,28 +4749,28 @@
         <v>2224.911252462377</v>
       </c>
       <c r="R7" t="n">
-        <v>2177.87263914955</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S7" t="n">
-        <v>2007.737591668685</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T7" t="n">
-        <v>1764.398243894585</v>
+        <v>2199.519583877615</v>
       </c>
       <c r="U7" t="n">
-        <v>1751.551146779876</v>
+        <v>2199.519583877615</v>
       </c>
       <c r="V7" t="n">
-        <v>1751.551146779876</v>
+        <v>1917.808116485644</v>
       </c>
       <c r="W7" t="n">
-        <v>1476.698742952389</v>
+        <v>1642.955712658157</v>
       </c>
       <c r="X7" t="n">
-        <v>1234.134846398194</v>
+        <v>1400.391816103962</v>
       </c>
       <c r="Y7" t="n">
-        <v>1007.792078087936</v>
+        <v>1174.049047793704</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>995.654673634235</v>
+        <v>129.9297397222204</v>
       </c>
       <c r="C8" t="n">
-        <v>972.7943476879392</v>
+        <v>107.0694137759246</v>
       </c>
       <c r="D8" t="n">
-        <v>549.5017268729395</v>
+        <v>87.81719700132894</v>
       </c>
       <c r="E8" t="n">
-        <v>469.9210652299946</v>
+        <v>65.88066118959054</v>
       </c>
       <c r="F8" t="n">
         <v>44.79688341939484</v>
@@ -4807,49 +4807,49 @@
         <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>407.101683866143</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L8" t="n">
         <v>957.7672188505812</v>
       </c>
       <c r="M8" t="n">
-        <v>1508.432753835019</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N8" t="n">
-        <v>2059.098288819458</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="O8" t="n">
-        <v>2107.354917580474</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="P8" t="n">
-        <v>2107.354917580474</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q8" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R8" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>2224.911252462377</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U8" t="n">
-        <v>2224.911252462377</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="V8" t="n">
-        <v>2224.911252462377</v>
+        <v>1542.1289725064</v>
       </c>
       <c r="W8" t="n">
-        <v>1828.519902762723</v>
+        <v>1145.737622806746</v>
       </c>
       <c r="X8" t="n">
-        <v>1416.799903930471</v>
+        <v>734.0176239744937</v>
       </c>
       <c r="Y8" t="n">
-        <v>1415.503037925765</v>
+        <v>328.6803539293841</v>
       </c>
     </row>
     <row r="9">
@@ -4883,28 +4883,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J9" t="n">
-        <v>316.1957143288386</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K9" t="n">
-        <v>316.1957143288386</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L9" t="n">
-        <v>669.8354755761777</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M9" t="n">
-        <v>1220.501010560616</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N9" t="n">
-        <v>1771.166545545054</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="O9" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P9" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q9" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R9" t="n">
         <v>1853.185855629757</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>733.5956631384639</v>
+        <v>315.615903911738</v>
       </c>
       <c r="C10" t="n">
-        <v>733.5956631384639</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="D10" t="n">
-        <v>733.5956631384639</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="E10" t="n">
-        <v>567.3874572913174</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="F10" t="n">
-        <v>395.5256830658778</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="G10" t="n">
-        <v>229.26871336011</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H10" t="n">
         <v>144.2667933089716</v>
@@ -4986,28 +4986,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S10" t="n">
-        <v>2007.737591668684</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T10" t="n">
-        <v>1764.398243894584</v>
+        <v>1811.43685720741</v>
       </c>
       <c r="U10" t="n">
-        <v>1484.213795394888</v>
+        <v>1531.252408707715</v>
       </c>
       <c r="V10" t="n">
-        <v>1202.502328002917</v>
+        <v>1249.540941315744</v>
       </c>
       <c r="W10" t="n">
-        <v>1202.502328002917</v>
+        <v>974.6885374882565</v>
       </c>
       <c r="X10" t="n">
-        <v>959.9384314487219</v>
+        <v>732.1246409340616</v>
       </c>
       <c r="Y10" t="n">
-        <v>733.5956631384639</v>
+        <v>505.7818726238037</v>
       </c>
     </row>
     <row r="11">
@@ -5023,19 +5023,19 @@
         <v>2113.800768076616</v>
       </c>
       <c r="D11" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E11" t="n">
         <v>1264.531207409474</v>
       </c>
       <c r="F11" t="n">
-        <v>839.407025598874</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G11" t="n">
-        <v>435.0679631883227</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H11" t="n">
-        <v>137.1995846623574</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I11" t="n">
         <v>102.3027134058285</v>
@@ -5050,16 +5050,16 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M11" t="n">
-        <v>3114.325629236558</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N11" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O11" t="n">
-        <v>4935.721337874071</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P11" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q11" t="n">
         <v>4997.579335409525</v>
@@ -5077,13 +5077,13 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V11" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W11" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X11" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y11" t="n">
         <v>2960.549862354846</v>
@@ -5126,13 +5126,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L12" t="n">
-        <v>102.3027134058285</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M12" t="n">
-        <v>102.3027134058285</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N12" t="n">
-        <v>1021.509065974867</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O12" t="n">
         <v>1910.990343986338</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>608.0932463474637</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C13" t="n">
-        <v>436.1206832263797</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D13" t="n">
-        <v>436.1206832263797</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E13" t="n">
-        <v>436.1206832263797</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F13" t="n">
-        <v>368.3282513713204</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G13" t="n">
-        <v>202.0712816655526</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H13" t="n">
         <v>202.0712816655526</v>
@@ -5226,25 +5226,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S13" t="n">
-        <v>2065.542080025265</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T13" t="n">
-        <v>1822.202732251165</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="U13" t="n">
-        <v>1542.018283751469</v>
+        <v>1955.492679006434</v>
       </c>
       <c r="V13" t="n">
-        <v>1542.018283751469</v>
+        <v>1955.492679006434</v>
       </c>
       <c r="W13" t="n">
-        <v>1267.165879923982</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X13" t="n">
-        <v>1024.601983369787</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y13" t="n">
-        <v>798.2592150595294</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="14">
@@ -5254,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C14" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D14" t="n">
         <v>1690.508147261616</v>
@@ -5266,13 +5266,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F14" t="n">
-        <v>839.407025598874</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G14" t="n">
-        <v>435.0679631883227</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H14" t="n">
-        <v>137.1995846623574</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I14" t="n">
         <v>102.3027134058285</v>
@@ -5296,10 +5296,10 @@
         <v>4935.721337874071</v>
       </c>
       <c r="P14" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q14" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R14" t="n">
         <v>5115.135670291427</v>
@@ -5323,7 +5323,7 @@
         <v>3365.887132399956</v>
       </c>
       <c r="Y14" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="15">
@@ -5357,25 +5357,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J15" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K15" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L15" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M15" t="n">
-        <v>1429.986740661465</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N15" t="n">
-        <v>1910.990343986338</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O15" t="n">
-        <v>1910.990343986338</v>
+        <v>991.7839914173002</v>
       </c>
       <c r="P15" t="n">
-        <v>1910.990343986338</v>
+        <v>1707.981708455798</v>
       </c>
       <c r="Q15" t="n">
         <v>1910.990343986338</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>853.0186603771511</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C16" t="n">
-        <v>681.0460972560671</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D16" t="n">
-        <v>517.7293243828378</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E16" t="n">
-        <v>517.7293243828378</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F16" t="n">
-        <v>345.8675501573982</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G16" t="n">
         <v>345.8675501573982</v>
@@ -5460,28 +5460,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R16" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S16" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T16" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U16" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="V16" t="n">
-        <v>1783.830612633294</v>
+        <v>2119.408873334071</v>
       </c>
       <c r="W16" t="n">
-        <v>1512.091293953669</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X16" t="n">
-        <v>1269.527397399475</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y16" t="n">
-        <v>1043.184629089217</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D17" t="n">
         <v>1690.508147261616</v>
@@ -5503,40 +5503,40 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.407025598874</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883227</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623574</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2751.722170419663</v>
+        <v>2837.654482149731</v>
       </c>
       <c r="N17" t="n">
-        <v>3727.973228906364</v>
+        <v>3813.905540636432</v>
       </c>
       <c r="O17" t="n">
-        <v>4573.117879057176</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="P17" t="n">
-        <v>4573.117879057176</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q17" t="n">
-        <v>5029.203358561359</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R17" t="n">
         <v>5115.135670291427</v>
@@ -5545,7 +5545,7 @@
         <v>5010.768376164568</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U17" t="n">
         <v>4531.487895805612</v>
@@ -5557,7 +5557,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y17" t="n">
         <v>2960.549862354846</v>
@@ -5591,25 +5591,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K18" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L18" t="n">
-        <v>102.3027134058285</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="M18" t="n">
-        <v>821.6753975134684</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="N18" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="O18" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P18" t="n">
         <v>1910.990343986338</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>941.9189991784958</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C19" t="n">
-        <v>769.9464360574118</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D19" t="n">
-        <v>606.6296631841825</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E19" t="n">
-        <v>440.421457337036</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F19" t="n">
-        <v>268.5596831115964</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
         <v>102.3027134058285</v>
@@ -5691,34 +5691,34 @@
         <v>1865.116398656294</v>
       </c>
       <c r="P19" t="n">
-        <v>2155.715610578193</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q19" t="n">
-        <v>2282.715740818955</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2282.715740818955</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2282.715740818955</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T19" t="n">
-        <v>2282.715740818955</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U19" t="n">
-        <v>2002.531292319259</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V19" t="n">
-        <v>1875.844036582501</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W19" t="n">
-        <v>1600.991632755014</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X19" t="n">
-        <v>1358.427736200819</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y19" t="n">
-        <v>1132.084967890562</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="20">
@@ -5734,46 +5734,46 @@
         <v>2113.800768076615</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261615</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409473</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988729</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883215</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623562</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>651.5495334576516</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1581.174581076928</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2585.460682495986</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N20" t="n">
-        <v>3561.711740982687</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O20" t="n">
-        <v>4406.8563911335</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P20" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q20" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R20" t="n">
         <v>5115.135670291427</v>
@@ -5788,16 +5788,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.99848093186</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232207</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
         <v>3365.887132399955</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354845</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="21">
@@ -5834,19 +5834,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K21" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L21" t="n">
-        <v>1529.586448057074</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M21" t="n">
-        <v>1529.586448057074</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N21" t="n">
-        <v>1529.586448057074</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="O21" t="n">
-        <v>1529.586448057074</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P21" t="n">
         <v>1910.990343986338</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>599.7631605785773</v>
+        <v>496.5168264363576</v>
       </c>
       <c r="C22" t="n">
-        <v>599.7631605785773</v>
+        <v>324.5442633152736</v>
       </c>
       <c r="D22" t="n">
-        <v>436.446387705348</v>
+        <v>324.5442633152736</v>
       </c>
       <c r="E22" t="n">
-        <v>417.9607561231137</v>
+        <v>324.5442633152736</v>
       </c>
       <c r="F22" t="n">
-        <v>246.0989818976742</v>
+        <v>152.682489089834</v>
       </c>
       <c r="G22" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
         <v>102.3027134058285</v>
@@ -5934,28 +5934,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S22" t="n">
-        <v>2112.580693338092</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T22" t="n">
-        <v>1869.241345563992</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="U22" t="n">
-        <v>1589.056897064296</v>
+        <v>1712.153331232334</v>
       </c>
       <c r="V22" t="n">
-        <v>1307.345429672325</v>
+        <v>1430.441863840363</v>
       </c>
       <c r="W22" t="n">
-        <v>1032.493025844838</v>
+        <v>1155.589460012876</v>
       </c>
       <c r="X22" t="n">
-        <v>789.9291292906429</v>
+        <v>913.0255634586812</v>
       </c>
       <c r="Y22" t="n">
-        <v>789.9291292906429</v>
+        <v>686.6827951484232</v>
       </c>
     </row>
     <row r="23">
@@ -5989,28 +5989,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6074,13 +6074,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L24" t="n">
-        <v>939.1015214887346</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M24" t="n">
-        <v>1910.990343986338</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N24" t="n">
-        <v>1910.990343986338</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O24" t="n">
         <v>1910.990343986338</v>
@@ -6135,13 +6135,13 @@
         <v>201.4478291472353</v>
       </c>
       <c r="F25" t="n">
-        <v>201.4478291472353</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G25" t="n">
-        <v>201.4478291472353</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
-        <v>201.4478291472353</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
@@ -6226,25 +6226,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>195.4640539534684</v>
       </c>
       <c r="K26" t="n">
-        <v>817.8110213813276</v>
+        <v>195.4640539534684</v>
       </c>
       <c r="L26" t="n">
-        <v>1747.436069000604</v>
+        <v>1125.089101572745</v>
       </c>
       <c r="M26" t="n">
-        <v>2751.722170419663</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N26" t="n">
-        <v>3727.973228906364</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O26" t="n">
-        <v>4573.117879057176</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P26" t="n">
-        <v>5115.135670291427</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q26" t="n">
         <v>5115.135670291427</v>
@@ -6314,16 +6314,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M27" t="n">
-        <v>821.6753975134684</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N27" t="n">
-        <v>1910.990343986338</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q27" t="n">
         <v>1910.990343986338</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>446.1370507523521</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C28" t="n">
-        <v>274.1644876312681</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D28" t="n">
-        <v>274.1644876312681</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E28" t="n">
-        <v>274.1644876312681</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F28" t="n">
         <v>102.3027134058285</v>
@@ -6411,25 +6411,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2185.297351822124</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T28" t="n">
-        <v>1941.958004048024</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U28" t="n">
-        <v>1661.773555548329</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V28" t="n">
-        <v>1380.062088156358</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W28" t="n">
-        <v>1105.20968432887</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X28" t="n">
-        <v>862.6457877746757</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y28" t="n">
-        <v>636.3030194644177</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="29">
@@ -6548,19 +6548,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L30" t="n">
-        <v>855.0038060102931</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M30" t="n">
-        <v>1910.990343986338</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N30" t="n">
-        <v>1910.990343986338</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q30" t="n">
         <v>1910.990343986338</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1041.68756743822</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C31" t="n">
-        <v>869.7150043171358</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D31" t="n">
-        <v>706.3982314439065</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E31" t="n">
-        <v>540.1900255967601</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
-        <v>368.3282513713204</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
@@ -6645,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T31" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U31" t="n">
-        <v>1756.128900096451</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V31" t="n">
-        <v>1474.41743270448</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W31" t="n">
-        <v>1474.41743270448</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X31" t="n">
-        <v>1231.853536150285</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y31" t="n">
-        <v>1231.853536150285</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="32">
@@ -6700,28 +6700,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>102.3027134058285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1007.532766690843</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2011.818868109901</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N32" t="n">
-        <v>2988.069926596602</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O32" t="n">
-        <v>3833.214576747414</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="P32" t="n">
-        <v>4541.493855905342</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q32" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6788,19 +6788,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M33" t="n">
-        <v>821.6753975134684</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N33" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="O33" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P33" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q33" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R33" t="n">
         <v>1910.990343986338</v>
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D35" t="n">
         <v>1690.508147261616</v>
@@ -6925,49 +6925,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>195.4640539534684</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K35" t="n">
-        <v>195.4640539534684</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L35" t="n">
-        <v>1125.089101572745</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M35" t="n">
-        <v>2129.375202991803</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N35" t="n">
-        <v>3105.626261478504</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O35" t="n">
-        <v>3950.770911629316</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P35" t="n">
-        <v>4659.050190787244</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R35" t="n">
         <v>5115.135670291427</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
@@ -7028,13 +7028,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="N36" t="n">
-        <v>1021.509065974867</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q36" t="n">
         <v>1910.990343986338</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>374.0438447866366</v>
+        <v>612.3940204581201</v>
       </c>
       <c r="C37" t="n">
-        <v>202.0712816655526</v>
+        <v>440.421457337036</v>
       </c>
       <c r="D37" t="n">
-        <v>202.0712816655526</v>
+        <v>440.421457337036</v>
       </c>
       <c r="E37" t="n">
-        <v>202.0712816655526</v>
+        <v>440.421457337036</v>
       </c>
       <c r="F37" t="n">
-        <v>202.0712816655526</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G37" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H37" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
@@ -7119,28 +7119,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2113.204145856409</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T37" t="n">
-        <v>1869.864798082309</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U37" t="n">
-        <v>1589.680349582613</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V37" t="n">
-        <v>1307.968882190642</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W37" t="n">
-        <v>1033.116478363155</v>
+        <v>1045.12388572438</v>
       </c>
       <c r="X37" t="n">
-        <v>790.5525818089602</v>
+        <v>802.5599891701856</v>
       </c>
       <c r="Y37" t="n">
-        <v>564.2098134987023</v>
+        <v>802.5599891701856</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D38" t="n">
         <v>1690.508147261616</v>
@@ -7162,13 +7162,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
@@ -7180,22 +7180,22 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1715.81204584877</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M38" t="n">
-        <v>2720.098147267829</v>
+        <v>2184.700581617281</v>
       </c>
       <c r="N38" t="n">
-        <v>3696.34920575453</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O38" t="n">
-        <v>4541.493855905342</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P38" t="n">
-        <v>4541.493855905342</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q38" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R38" t="n">
         <v>5115.135670291427</v>
@@ -7210,13 +7210,13 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y38" t="n">
         <v>2960.549862354846</v>
@@ -7262,16 +7262,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M39" t="n">
-        <v>1158.289251381874</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N39" t="n">
-        <v>1910.990343986338</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O39" t="n">
-        <v>1910.990343986338</v>
+        <v>991.7839914173002</v>
       </c>
       <c r="P39" t="n">
-        <v>1910.990343986338</v>
+        <v>1707.981708455798</v>
       </c>
       <c r="Q39" t="n">
         <v>1910.990343986338</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>543.5554397491844</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C40" t="n">
-        <v>543.5554397491844</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D40" t="n">
-        <v>540.1412617381386</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E40" t="n">
-        <v>373.9330558909921</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F40" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
@@ -7359,25 +7359,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T40" t="n">
-        <v>2039.376393044857</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U40" t="n">
-        <v>1759.191944545161</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V40" t="n">
-        <v>1477.48047715319</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.628073325703</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X40" t="n">
-        <v>960.064176771508</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y40" t="n">
-        <v>733.72140846125</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="41">
@@ -7399,28 +7399,28 @@
         <v>1264.531207409475</v>
       </c>
       <c r="F41" t="n">
-        <v>839.407025598875</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G41" t="n">
-        <v>435.0679631883236</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H41" t="n">
-        <v>137.1995846623585</v>
+        <v>137.1995846623582</v>
       </c>
       <c r="I41" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K41" t="n">
-        <v>102.3027134058285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L41" t="n">
-        <v>1007.532766690843</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M41" t="n">
-        <v>2011.818868109901</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N41" t="n">
         <v>2988.069926596602</v>
@@ -7456,7 +7456,7 @@
         <v>3365.887132399956</v>
       </c>
       <c r="Y41" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="42">
@@ -7496,16 +7496,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L42" t="n">
-        <v>939.1015214887346</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M42" t="n">
-        <v>1910.990343986338</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N42" t="n">
-        <v>1910.990343986338</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="O42" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P42" t="n">
         <v>1910.990343986338</v>
@@ -7545,13 +7545,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>941.9189991784958</v>
+        <v>653.604840768015</v>
       </c>
       <c r="C43" t="n">
-        <v>769.9464360574118</v>
+        <v>481.632277646931</v>
       </c>
       <c r="D43" t="n">
-        <v>606.6296631841825</v>
+        <v>481.632277646931</v>
       </c>
       <c r="E43" t="n">
         <v>440.421457337036</v>
@@ -7593,28 +7593,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R43" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S43" t="n">
-        <v>2235.67712750613</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T43" t="n">
-        <v>1992.33777973203</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U43" t="n">
-        <v>1992.33777973203</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="V43" t="n">
-        <v>1875.844036582501</v>
+        <v>1587.529878172021</v>
       </c>
       <c r="W43" t="n">
-        <v>1600.991632755014</v>
+        <v>1312.677474344533</v>
       </c>
       <c r="X43" t="n">
-        <v>1358.427736200819</v>
+        <v>1070.113577790339</v>
       </c>
       <c r="Y43" t="n">
-        <v>1132.084967890562</v>
+        <v>843.7708094800807</v>
       </c>
     </row>
     <row r="44">
@@ -7624,52 +7624,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C44" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D44" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E44" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F44" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G44" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H44" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623582</v>
       </c>
       <c r="I44" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K44" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L44" t="n">
-        <v>1007.532766690843</v>
+        <v>1031.927761025105</v>
       </c>
       <c r="M44" t="n">
-        <v>2011.818868109901</v>
+        <v>2036.213862444163</v>
       </c>
       <c r="N44" t="n">
-        <v>2988.069926596602</v>
+        <v>3012.464920930865</v>
       </c>
       <c r="O44" t="n">
-        <v>3833.214576747414</v>
+        <v>3857.609571081677</v>
       </c>
       <c r="P44" t="n">
-        <v>4541.493855905342</v>
+        <v>4565.888850239604</v>
       </c>
       <c r="Q44" t="n">
-        <v>4997.579335409525</v>
+        <v>5021.974329743787</v>
       </c>
       <c r="R44" t="n">
         <v>5115.135670291427</v>
@@ -7690,10 +7690,10 @@
         <v>3777.607131232209</v>
       </c>
       <c r="X44" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y44" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="45">
@@ -7730,22 +7730,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K45" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L45" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M45" t="n">
-        <v>692.7876399741681</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N45" t="n">
-        <v>692.7876399741681</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O45" t="n">
-        <v>730.647150085061</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P45" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q45" t="n">
         <v>1910.990343986338</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>345.8675501573982</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C46" t="n">
-        <v>345.8675501573982</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D46" t="n">
-        <v>345.8675501573982</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E46" t="n">
-        <v>345.8675501573982</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F46" t="n">
-        <v>345.8675501573982</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G46" t="n">
         <v>345.8675501573982</v>
@@ -7836,22 +7836,22 @@
         <v>2065.542080025265</v>
       </c>
       <c r="T46" t="n">
-        <v>1822.202732251165</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="U46" t="n">
-        <v>1542.018283751469</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="V46" t="n">
-        <v>1260.306816359498</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="W46" t="n">
-        <v>985.454412532011</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X46" t="n">
-        <v>742.8905159778161</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y46" t="n">
-        <v>516.5477476675582</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
   </sheetData>
@@ -7978,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>519.5412919487783</v>
+        <v>499.9947589728592</v>
       </c>
       <c r="L2" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>521.2079540534007</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>37.27962283444602</v>
+        <v>521.0563139884139</v>
       </c>
       <c r="O2" t="n">
-        <v>37.3909593560241</v>
+        <v>521.167650509992</v>
       </c>
       <c r="P2" t="n">
-        <v>39.87991497762398</v>
+        <v>521.3520529641992</v>
       </c>
       <c r="Q2" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8066,16 +8066,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>506.873471666297</v>
+        <v>506.8734716662958</v>
       </c>
       <c r="N3" t="n">
-        <v>505.1197193675106</v>
+        <v>505.1197193675095</v>
       </c>
       <c r="O3" t="n">
-        <v>506.9485808761912</v>
+        <v>506.94858087619</v>
       </c>
       <c r="P3" t="n">
-        <v>397.3979703494975</v>
+        <v>397.3979703495007</v>
       </c>
       <c r="Q3" t="n">
         <v>22.7470382889785</v>
@@ -8136,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K4" t="n">
         <v>249.7804132464869</v>
@@ -8151,13 +8151,13 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O4" t="n">
-        <v>280.9953380591445</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P4" t="n">
-        <v>315.9153581548562</v>
+        <v>29.03818836740707</v>
       </c>
       <c r="Q4" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8215,19 +8215,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
         <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M5" t="n">
-        <v>37.43126289943181</v>
+        <v>571.1852249800523</v>
       </c>
       <c r="N5" t="n">
-        <v>181.5591018660332</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
         <v>593.6187724716183</v>
@@ -8236,10 +8236,10 @@
         <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R5" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8297,28 +8297,28 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>97.8252091287798</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>577.5708413291358</v>
+        <v>267.0107895760205</v>
       </c>
       <c r="O6" t="n">
         <v>579.3997028378163</v>
       </c>
       <c r="P6" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8373,13 +8373,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>78.70880469517259</v>
+        <v>78.70880469517321</v>
       </c>
       <c r="K7" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L7" t="n">
-        <v>380.190801607238</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M7" t="n">
         <v>417.7126065281028</v>
@@ -8455,28 +8455,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>593.5074359500402</v>
+        <v>300.3028744740158</v>
       </c>
       <c r="O8" t="n">
-        <v>86.13502881159596</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,13 +8531,13 @@
         <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>379.7269667620468</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M9" t="n">
         <v>579.3245936279221</v>
@@ -8546,7 +8546,7 @@
         <v>577.5708413291358</v>
       </c>
       <c r="O9" t="n">
-        <v>23.17188972222222</v>
+        <v>181.4456529820153</v>
       </c>
       <c r="P9" t="n">
         <v>21.77084120482866</v>
@@ -8555,7 +8555,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R9" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8698,19 +8698,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N11" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O11" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>100.0581876036193</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
         <v>153.7764225027789</v>
@@ -8774,16 +8774,16 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M12" t="n">
-        <v>23.09678051232798</v>
+        <v>1004.802661823039</v>
       </c>
       <c r="N12" t="n">
-        <v>949.8342934347922</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
         <v>21.77084120482866</v>
@@ -8944,13 +8944,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>100.0581876036193</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q14" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R14" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,7 +9005,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J15" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
         <v>22.39923383333334</v>
@@ -9014,19 +9014,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>507.2052537942219</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>227.806266097605</v>
       </c>
       <c r="R15" t="n">
         <v>23.67291939414415</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
         <v>758.5002654165255</v>
@@ -9172,7 +9172,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>772.395863235019</v>
       </c>
       <c r="N17" t="n">
         <v>1023.391803124043</v>
@@ -9187,7 +9187,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>121.8329647736533</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,28 +9239,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L18" t="n">
-        <v>22.51508671422956</v>
+        <v>247.6270611911683</v>
       </c>
       <c r="M18" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q18" t="n">
         <v>22.7470382889785</v>
@@ -9400,19 +9400,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>590.5593685239236</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
@@ -9421,10 +9421,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9482,22 +9482,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K21" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>21.34302821354166</v>
+        <v>226.402256022168</v>
       </c>
       <c r="O21" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P21" t="n">
-        <v>407.0273017394389</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q21" t="n">
         <v>22.7470382889785</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9646,22 +9646,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9722,16 +9722,16 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L24" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>1004.802661823039</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>21.34302821354166</v>
+        <v>949.8342934347922</v>
       </c>
       <c r="O24" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P24" t="n">
         <v>21.77084120482866</v>
@@ -9874,10 +9874,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>123.5223236751217</v>
       </c>
       <c r="K26" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L26" t="n">
         <v>977.3272420480539</v>
@@ -9892,10 +9892,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
         <v>35.03264989479647</v>
@@ -9962,19 +9962,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>23.17188972222222</v>
+        <v>657.8632399032651</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
         <v>23.67291939414415</v>
@@ -10196,22 +10196,22 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L30" t="n">
-        <v>782.8192206581333</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>23.17188972222222</v>
+        <v>657.8632399032651</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
         <v>23.67291939414415</v>
@@ -10348,13 +10348,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
-        <v>952.6858336296069</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
         <v>1051.861668373228</v>
@@ -10363,16 +10363,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O32" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P32" t="n">
-        <v>753.0089771212694</v>
+        <v>611.7910214708227</v>
       </c>
       <c r="Q32" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10436,22 +10436,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>1121.661155963915</v>
+        <v>573.1865904302379</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,10 +10585,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>123.5223236751217</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K35" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
         <v>977.3272420480539</v>
@@ -10603,13 +10603,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>753.0089771212694</v>
+        <v>466.324307620685</v>
       </c>
       <c r="Q35" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R35" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10676,16 +10676,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>949.8342934347922</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>921.6378271075471</v>
+        <v>657.8632399032651</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
         <v>23.67291939414415</v>
@@ -10828,25 +10828,25 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>579.1176643018625</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M38" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N38" t="n">
-        <v>1023.391803124043</v>
+        <v>967.5075822902267</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10910,19 +10910,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>227.806266097605</v>
       </c>
       <c r="R39" t="n">
         <v>23.67291939414415</v>
@@ -11059,19 +11059,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>952.6858336296069</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N41" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O41" t="n">
         <v>891.0724241548241</v>
@@ -11144,19 +11144,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>1004.802661823039</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>21.34302821354166</v>
+        <v>226.402256022168</v>
       </c>
       <c r="O42" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q42" t="n">
         <v>22.7470382889785</v>
@@ -11296,13 +11296,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K44" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L44" t="n">
-        <v>586.4197136125407</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
         <v>1051.861668373228</v>
@@ -11320,7 +11320,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>153.7764225027789</v>
+        <v>129.1350140843319</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11378,25 +11378,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N45" t="n">
-        <v>21.34302821354166</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O45" t="n">
-        <v>61.41381912716452</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R45" t="n">
         <v>23.67291939414415</v>
@@ -23421,19 +23421,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>103.0286489466765</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23466,10 +23466,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>162.2770323843601</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23661,13 +23661,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
         <v>240.905954296359</v>
@@ -23712,10 +23712,10 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W16" t="n">
-        <v>3.081954296383969</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23895,16 +23895,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
         <v>142.3583058069271</v>
@@ -23940,16 +23940,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>153.4739695386609</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24129,22 +24129,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>146.245348522263</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>114.7184220815447</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
         <v>98.77088257712678</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24375,7 +24375,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>71.9894918991925</v>
       </c>
       <c r="G25" t="n">
         <v>164.5944000087102</v>
@@ -24384,7 +24384,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0.6172179931341049</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24612,7 +24612,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>71.9894918991925</v>
       </c>
       <c r="G28" t="n">
         <v>164.5944000087102</v>
@@ -24651,7 +24651,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>71.9894918991922</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>211.9695101815324</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25323,16 +25323,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>47.18544517283263</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25374,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>12.50455128074719</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -25551,16 +25551,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>158.3035689135616</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>71.9894918991925</v>
       </c>
       <c r="G40" t="n">
         <v>164.5944000087102</v>
@@ -25569,7 +25569,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25791,10 +25791,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>123.7474116818789</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>163.565547000018</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26022,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>19.29091348988666</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26076,16 +26076,16 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>22.13019988286467</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>520408.8295412346</v>
+        <v>520408.8295412344</v>
       </c>
     </row>
     <row r="9">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>520408.8295412345</v>
+        <v>520408.8295412344</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>520408.8295412346</v>
+        <v>520408.8295412345</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>509637.3345097677</v>
+        <v>509637.3345097679</v>
       </c>
       <c r="C2" t="n">
         <v>509637.3345097678</v>
       </c>
       <c r="D2" t="n">
-        <v>509637.3345097677</v>
+        <v>509637.3345097679</v>
       </c>
       <c r="E2" t="n">
-        <v>491776.6027452663</v>
+        <v>491776.6027452664</v>
       </c>
       <c r="F2" t="n">
         <v>491776.6027452662</v>
       </c>
       <c r="G2" t="n">
+        <v>491776.6027452666</v>
+      </c>
+      <c r="H2" t="n">
         <v>491776.6027452663</v>
       </c>
-      <c r="H2" t="n">
-        <v>491776.6027452662</v>
-      </c>
       <c r="I2" t="n">
-        <v>491776.6027452663</v>
+        <v>491776.6027452664</v>
       </c>
       <c r="J2" t="n">
+        <v>491776.6027452666</v>
+      </c>
+      <c r="K2" t="n">
+        <v>491776.6027452665</v>
+      </c>
+      <c r="L2" t="n">
+        <v>491776.6027452665</v>
+      </c>
+      <c r="M2" t="n">
         <v>491776.6027452664</v>
       </c>
-      <c r="K2" t="n">
+      <c r="N2" t="n">
+        <v>491776.6027452665</v>
+      </c>
+      <c r="O2" t="n">
         <v>491776.6027452664</v>
       </c>
-      <c r="L2" t="n">
-        <v>491776.6027452663</v>
-      </c>
-      <c r="M2" t="n">
-        <v>491776.6027452662</v>
-      </c>
-      <c r="N2" t="n">
-        <v>491776.6027452666</v>
-      </c>
-      <c r="O2" t="n">
-        <v>491776.6027452663</v>
-      </c>
       <c r="P2" t="n">
-        <v>491776.6027452663</v>
+        <v>491776.6027452664</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>162124.6960695915</v>
+        <v>162124.6960695912</v>
       </c>
       <c r="C3" t="n">
-        <v>23406.83367361191</v>
+        <v>23406.83367361228</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>215739.3565566405</v>
+        <v>215739.3565566406</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>126577.2685802891</v>
+        <v>126577.2685802888</v>
       </c>
       <c r="K3" t="n">
-        <v>18646.60035701955</v>
+        <v>18646.60035701984</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>171848.3668116664</v>
+        <v>171848.3668116666</v>
       </c>
       <c r="C4" t="n">
         <v>156753.0758057354</v>
@@ -26426,19 +26426,19 @@
         <v>156753.0758057354</v>
       </c>
       <c r="E4" t="n">
-        <v>29432.28705591145</v>
+        <v>29432.2870559115</v>
       </c>
       <c r="F4" t="n">
-        <v>29432.28705591145</v>
+        <v>29432.2870559115</v>
       </c>
       <c r="G4" t="n">
-        <v>29432.28705591137</v>
+        <v>29432.2870559115</v>
       </c>
       <c r="H4" t="n">
-        <v>29432.28705591138</v>
+        <v>29432.2870559115</v>
       </c>
       <c r="I4" t="n">
-        <v>29432.28705591151</v>
+        <v>29432.2870559115</v>
       </c>
       <c r="J4" t="n">
         <v>29432.2870559115</v>
@@ -26447,19 +26447,19 @@
         <v>29432.2870559115</v>
       </c>
       <c r="L4" t="n">
-        <v>29432.2870559115</v>
+        <v>29432.28705591151</v>
       </c>
       <c r="M4" t="n">
         <v>29432.2870559115</v>
       </c>
       <c r="N4" t="n">
-        <v>29432.28705591148</v>
+        <v>29432.2870559115</v>
       </c>
       <c r="O4" t="n">
-        <v>29432.28705591145</v>
+        <v>29432.28705591147</v>
       </c>
       <c r="P4" t="n">
-        <v>29432.28705591145</v>
+        <v>29432.2870559115</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63041.22282216131</v>
+        <v>63041.22282216125</v>
       </c>
       <c r="C5" t="n">
         <v>67446.25103742813</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>112623.0488063485</v>
+        <v>112623.0488063489</v>
       </c>
       <c r="C6" t="n">
-        <v>262031.1739929924</v>
+        <v>262031.173992992</v>
       </c>
       <c r="D6" t="n">
-        <v>285438.0076666041</v>
+        <v>285438.0076666045</v>
       </c>
       <c r="E6" t="n">
-        <v>168854.8969442847</v>
+        <v>168803.8662821003</v>
       </c>
       <c r="F6" t="n">
-        <v>384594.2535009251</v>
+        <v>384543.2228387407</v>
       </c>
       <c r="G6" t="n">
-        <v>384594.2535009253</v>
+        <v>384543.2228387411</v>
       </c>
       <c r="H6" t="n">
-        <v>384594.2535009251</v>
+        <v>384543.2228387409</v>
       </c>
       <c r="I6" t="n">
-        <v>384594.2535009251</v>
+        <v>384543.2228387409</v>
       </c>
       <c r="J6" t="n">
-        <v>258016.9849206362</v>
+        <v>257965.9542584523</v>
       </c>
       <c r="K6" t="n">
-        <v>365947.6531439057</v>
+        <v>365896.6224817211</v>
       </c>
       <c r="L6" t="n">
-        <v>384594.2535009251</v>
+        <v>384543.222838741</v>
       </c>
       <c r="M6" t="n">
-        <v>204530.3820457573</v>
+        <v>204479.3513835733</v>
       </c>
       <c r="N6" t="n">
-        <v>384594.2535009254</v>
+        <v>384543.222838741</v>
       </c>
       <c r="O6" t="n">
-        <v>384594.2535009251</v>
+        <v>384543.2228387409</v>
       </c>
       <c r="P6" t="n">
-        <v>384594.2535009251</v>
+        <v>384543.2228387409</v>
       </c>
     </row>
   </sheetData>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.776691153969</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="C4" t="n">
         <v>556.2278131155941</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.776691153969</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="C4" t="n">
-        <v>72.45112196162518</v>
+        <v>72.45112196162631</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27035,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.776691153969</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162518</v>
+        <v>72.45112196162631</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.776691153969</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162518</v>
+        <v>72.45112196162631</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
+        <v>220.1356166021049</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>400</v>
       </c>
-      <c r="D2" t="n">
-        <v>400</v>
-      </c>
-      <c r="E2" t="n">
-        <v>288.9113352437281</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
         <v>218.7163152458132</v>
@@ -27444,10 +27444,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27542,10 +27542,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27554,7 +27554,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27590,19 +27590,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>198.1060208498878</v>
+        <v>116.4635197904341</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
         <v>224.0793406271554</v>
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>255.9418176472615</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.769097014226</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27788,7 +27788,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>142.3583058069271</v>
@@ -27821,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>215.7682023974454</v>
       </c>
       <c r="U7" t="n">
-        <v>264.6639778711375</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27852,19 +27852,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>218.8867725835227</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>342.9323154271056</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,25 +28010,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>142.9755238000615</v>
       </c>
       <c r="D10" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>58.2064049563001</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28073,7 +28073,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>483.776691153969</v>
+        <v>464.2301581780499</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>483.776691153969</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="P2" t="n">
-        <v>2.30455316739268</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="Q2" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34786,16 +34786,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>483.776691153969</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="N3" t="n">
-        <v>483.776691153969</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="O3" t="n">
-        <v>483.776691153969</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="P3" t="n">
-        <v>375.6271291446688</v>
+        <v>375.627129144672</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34856,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K4" t="n">
         <v>228.8157587937749</v>
@@ -34871,13 +34871,13 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O4" t="n">
-        <v>258.49615056072</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P4" t="n">
-        <v>293.5345574968697</v>
+        <v>6.657387709420582</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>533.7539620806206</v>
       </c>
       <c r="N5" t="n">
-        <v>144.2794790315872</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>556.2278131155941</v>
@@ -34956,10 +34956,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35017,28 +35017,28 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.42597529544646</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>556.2278131155941</v>
+        <v>245.6677613624788</v>
       </c>
       <c r="O6" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,13 +35093,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127134</v>
       </c>
       <c r="K7" t="n">
         <v>228.8157587937749</v>
       </c>
       <c r="L7" t="n">
-        <v>358.2720417115368</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M7" t="n">
         <v>395.137166636617</v>
@@ -35175,28 +35175,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>263.0232516395698</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M8" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="N8" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="O8" t="n">
-        <v>48.74406945557187</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,13 +35251,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>357.2118800478173</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M9" t="n">
         <v>556.2278131155941</v>
@@ -35266,7 +35266,7 @@
         <v>556.2278131155941</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>158.2737632597931</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35275,7 +35275,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35418,19 +35418,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O11" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>62.48282579338804</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
         <v>118.7437726079824</v>
@@ -35494,16 +35494,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>981.7058813107108</v>
       </c>
       <c r="N12" t="n">
-        <v>928.4912652212506</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35664,13 +35664,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>62.48282579338804</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35734,19 +35734,19 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>485.8622255806802</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>205.0592278086265</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
         <v>722.7356646217162</v>
@@ -35892,7 +35892,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>734.9646003355872</v>
       </c>
       <c r="N17" t="n">
         <v>986.1121802895968</v>
@@ -35907,7 +35907,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>86.80031487885682</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,28 +35959,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>225.1119744769387</v>
       </c>
       <c r="M18" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36059,7 +36059,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P19" t="n">
-        <v>293.5345574968675</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q19" t="n">
         <v>128.2829598391535</v>
@@ -36120,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
-        <v>554.7947677291143</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
@@ -36141,10 +36141,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,22 +36202,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>205.0592278086264</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P21" t="n">
-        <v>385.2564605346102</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
@@ -36366,22 +36366,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36442,16 +36442,16 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>981.7058813107108</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36594,10 +36594,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>94.10236418953517</v>
       </c>
       <c r="K26" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>939.015199615431</v>
@@ -36612,10 +36612,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36682,19 +36682,19 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>634.6913501810429</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36916,22 +36916,22 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>760.3041339439037</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>634.6913501810429</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,13 +37068,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
-        <v>914.373791196984</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
         <v>1014.430405473796</v>
@@ -37083,16 +37083,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O32" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>715.433615311038</v>
+        <v>574.2156596605913</v>
       </c>
       <c r="Q32" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,22 +37156,22 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1100.318127750374</v>
+        <v>551.8435622166962</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37305,10 +37305,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>94.10236418953517</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
         <v>939.015199615431</v>
@@ -37323,13 +37323,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>715.433615311038</v>
+        <v>428.7489458104537</v>
       </c>
       <c r="Q35" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37396,16 +37396,16 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>928.4912652212506</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>898.4659373853249</v>
+        <v>634.6913501810429</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37548,25 +37548,25 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>540.8056218692396</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N38" t="n">
-        <v>986.1121802895968</v>
+        <v>930.2279594557806</v>
       </c>
       <c r="O38" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,19 +37630,19 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>205.0592278086265</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,19 +37779,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>914.373791196984</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N41" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>853.6814647988001</v>
@@ -37864,19 +37864,19 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>981.7058813107108</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>205.0592278086264</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38016,13 +38016,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>548.1076711799178</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
         <v>1014.430405473796</v>
@@ -38040,7 +38040,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>118.7437726079824</v>
+        <v>94.10236418953542</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O45" t="n">
-        <v>38.24192940494229</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
